--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>934896.0992634729</v>
+        <v>932117.6219670117</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9432968.674615584</v>
+        <v>9432968.674615566</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673452</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.644403348031654</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>227.7664834517757</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46.83662517467506</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>184.7461652430529</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>11.21959608876246</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>150.5200544906821</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.16194852731947</v>
+        <v>95.33732984204387</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.92301680884535</v>
+        <v>43.91650487643557</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>94.25736106477147</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>110.2530958569708</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>281.6401296091622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="T10" t="n">
-        <v>206.1608002224376</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.1659819191069</v>
+        <v>339.4954897427179</v>
       </c>
       <c r="H11" t="n">
-        <v>179.2005417529212</v>
+        <v>286.8680038679436</v>
       </c>
       <c r="I11" t="n">
-        <v>12.44111945452914</v>
+        <v>12.44111945452937</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.96625144175297</v>
+        <v>91.9662514417531</v>
       </c>
       <c r="T11" t="n">
         <v>200.609701942518</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.5951106195433</v>
       </c>
       <c r="H12" t="n">
-        <v>85.69162314370919</v>
+        <v>85.69162314370922</v>
       </c>
       <c r="I12" t="n">
-        <v>4.895224878119862</v>
+        <v>4.895224878119961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>120.6327249966834</v>
+        <v>120.6327249966835</v>
       </c>
       <c r="T12" t="n">
         <v>189.0867216174958</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>152.24407058636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.7409912039519</v>
       </c>
       <c r="I13" t="n">
-        <v>86.15774716454131</v>
+        <v>86.15774716454138</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.68945198345725</v>
+        <v>73.68945198345799</v>
       </c>
       <c r="S13" t="n">
-        <v>183.8611690402587</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.1004920738447</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1933472626044</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>133.5043715509464</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1625,7 @@
         <v>285.8791011139753</v>
       </c>
       <c r="I14" t="n">
-        <v>8.718461241678114</v>
+        <v>8.718461241679689</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>141.1608656275935</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6434938101614</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.3558919053047</v>
@@ -1819,16 +1819,16 @@
         <v>217.9154239037381</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1909846902201</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>171.3554483127531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>410.0694211717403</v>
       </c>
       <c r="H17" t="n">
-        <v>285.8791011139741</v>
+        <v>285.8791011139753</v>
       </c>
       <c r="I17" t="n">
-        <v>8.718461241678114</v>
+        <v>8.718461241678732</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>133.823688862622</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.6434938101614</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.3558919053047</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>84.85518225664259</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>71.74190481463472</v>
       </c>
       <c r="S19" t="n">
-        <v>183.1063271634625</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.9154239037381</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1909846902201</v>
       </c>
       <c r="V19" t="n">
-        <v>175.3123913169073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>285.8791011139753</v>
       </c>
       <c r="I20" t="n">
-        <v>8.718461241678114</v>
+        <v>8.718461241678957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>75.8553771289188</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>141.3558919053047</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.85518225664259</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>71.74190481463472</v>
       </c>
       <c r="S22" t="n">
         <v>183.1063271634625</v>
@@ -2296,13 +2296,13 @@
         <v>286.1909846902201</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>227.6772573002356</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>5.126386937922092</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>141.3558919053047</v>
       </c>
       <c r="I25" t="n">
-        <v>84.85518225664259</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>71.74190481463472</v>
       </c>
       <c r="S25" t="n">
         <v>183.1063271634625</v>
@@ -2533,7 +2533,7 @@
         <v>286.1909846902201</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.2711295903652</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>250.9269876003649</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584702168</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.34376134461008</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>71.74190481463472</v>
       </c>
       <c r="S28" t="n">
         <v>183.1063271634625</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.9154239037381</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1909846902201</v>
+        <v>117.1830804583477</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>106.2810751565424</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.3558919053047</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.85518225664259</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1063271634625</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.9154239037381</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1909846902201</v>
       </c>
       <c r="V31" t="n">
-        <v>68.04548074655277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>85.97870738306796</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3202,7 @@
         <v>165.6434938101614</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3558919053047</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.9154239037381</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1909846902201</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.5361594032386</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>50.9773625592333</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6434938101614</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.3558919053047</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>64.99182932560873</v>
+        <v>183.1063271634625</v>
       </c>
       <c r="T37" t="n">
         <v>217.9154239037381</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3558919053047</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>84.85518225664259</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>71.74190481463472</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.1063271634625</v>
       </c>
       <c r="T40" t="n">
-        <v>214.2189998356561</v>
+        <v>217.9154239037381</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>190.7343846028846</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.6434938101614</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>94.39084167824917</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,16 +3949,16 @@
         <v>183.1063271634625</v>
       </c>
       <c r="T43" t="n">
-        <v>217.9154239037381</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1909846902201</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>170.8439524620254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>410.0694211717403</v>
@@ -3995,7 +3995,7 @@
         <v>285.8791011139753</v>
       </c>
       <c r="I44" t="n">
-        <v>8.718461241678114</v>
+        <v>8.718461241678174</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>89.76587341113647</v>
+        <v>89.76587341113652</v>
       </c>
       <c r="T44" t="n">
-        <v>200.1870072709206</v>
+        <v>200.1870072709207</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9269876003649</v>
+        <v>250.926987600365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>86.81110043548395</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6434938101614</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.3558919053047</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>84.85518225664265</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.74190481463472</v>
+        <v>71.74190481463478</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1063271634626</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.9154239037382</v>
       </c>
       <c r="U46" t="n">
         <v>286.1909846902201</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>276.7633833517515</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.1641695407614</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="C2" t="n">
-        <v>312.1641695407614</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="D2" t="n">
-        <v>312.1641695407614</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4627520174971</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="F2" t="n">
-        <v>40.56170762187429</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="G2" t="n">
         <v>25.19784761800421</v>
@@ -4340,7 +4340,7 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4355,25 +4355,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>843.966258332007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>843.966258332007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U2" t="n">
-        <v>843.966258332007</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V2" t="n">
-        <v>843.966258332007</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="W2" t="n">
-        <v>843.966258332007</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="X2" t="n">
-        <v>578.0652139363842</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.0652139363842</v>
+        <v>521.1660470154206</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.90364308791</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="C3" t="n">
-        <v>214.90364308791</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="D3" t="n">
-        <v>214.90364308791</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="E3" t="n">
-        <v>214.90364308791</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="F3" t="n">
-        <v>68.36908511479501</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>158.2210505399122</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>394.9337607940759</v>
       </c>
       <c r="M3" t="n">
         <v>524.9036321565281</v>
@@ -4440,19 +4440,19 @@
         <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="W3" t="n">
-        <v>798.7307790784648</v>
+        <v>638.1355189245753</v>
       </c>
       <c r="X3" t="n">
-        <v>590.879278872932</v>
+        <v>430.2840187190425</v>
       </c>
       <c r="Y3" t="n">
-        <v>383.1189801079781</v>
+        <v>222.5237199540885</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4528,10 +4528,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>196.3935804494339</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="C5" t="n">
-        <v>196.3935804494339</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="D5" t="n">
-        <v>196.3935804494339</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="E5" t="n">
-        <v>44.35312136793684</v>
+        <v>125.3383550191736</v>
       </c>
       <c r="F5" t="n">
-        <v>37.40762061873336</v>
+        <v>118.3928542699701</v>
       </c>
       <c r="G5" t="n">
         <v>22.09252109618844</v>
@@ -4568,10 +4568,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
         <v>586.3582880173956</v>
@@ -4580,7 +4580,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4592,25 +4592,25 @@
         <v>962.1762753293418</v>
       </c>
       <c r="S5" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T5" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U5" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V5" t="n">
-        <v>475.3395538861566</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="W5" t="n">
-        <v>475.3395538861566</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="X5" t="n">
-        <v>475.3395538861566</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="Y5" t="n">
-        <v>475.3395538861566</v>
+        <v>404.2843284558963</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215.0139647348038</v>
+        <v>466.6760422661461</v>
       </c>
       <c r="C6" t="n">
-        <v>168.6270790693035</v>
+        <v>422.3159363303525</v>
       </c>
       <c r="D6" t="n">
-        <v>168.6270790693035</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="E6" t="n">
-        <v>168.6270790693035</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H6" t="n">
         <v>22.09252109618844</v>
@@ -4644,22 +4644,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L6" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M6" t="n">
-        <v>685.3494183114809</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N6" t="n">
-        <v>685.3494183114809</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O6" t="n">
-        <v>951.8462318947647</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P6" t="n">
         <v>1104.626054809422</v>
@@ -4671,25 +4671,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>932.6220420606005</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U6" t="n">
-        <v>704.4034296947482</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V6" t="n">
-        <v>469.2513214630055</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="W6" t="n">
-        <v>215.0139647348038</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="X6" t="n">
-        <v>215.0139647348038</v>
+        <v>466.6760422661461</v>
       </c>
       <c r="Y6" t="n">
-        <v>215.0139647348038</v>
+        <v>466.6760422661461</v>
       </c>
     </row>
     <row r="7">
@@ -4744,13 +4744,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T7" t="n">
         <v>22.09252109618844</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1198.223260609829</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.223260609829</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>839.9575620030787</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T10" t="n">
-        <v>519.8857516585174</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U10" t="n">
-        <v>519.8857516585174</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>519.8857516585174</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>519.8857516585174</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2216.830868314236</v>
+        <v>2254.201545019927</v>
       </c>
       <c r="C11" t="n">
-        <v>1847.868351373825</v>
+        <v>1885.239028079515</v>
       </c>
       <c r="D11" t="n">
-        <v>1489.602652767074</v>
+        <v>1526.973329472765</v>
       </c>
       <c r="E11" t="n">
-        <v>1103.81440016883</v>
+        <v>1141.185076874521</v>
       </c>
       <c r="F11" t="n">
-        <v>692.8284953792224</v>
+        <v>730.199172084913</v>
       </c>
       <c r="G11" t="n">
-        <v>278.51942273366</v>
+        <v>387.2744349710565</v>
       </c>
       <c r="H11" t="n">
-        <v>97.50877449838616</v>
+        <v>97.50877449838626</v>
       </c>
       <c r="I11" t="n">
-        <v>84.94198717057894</v>
+        <v>84.94198717057881</v>
       </c>
       <c r="J11" t="n">
         <v>337.3224948548723</v>
       </c>
       <c r="K11" t="n">
-        <v>766.3139712221305</v>
+        <v>766.3139712221287</v>
       </c>
       <c r="L11" t="n">
-        <v>1335.417593534859</v>
+        <v>1335.417593534858</v>
       </c>
       <c r="M11" t="n">
-        <v>2000.324465330433</v>
+        <v>2000.32446533043</v>
       </c>
       <c r="N11" t="n">
-        <v>2680.604033829224</v>
+        <v>2680.604033829221</v>
       </c>
       <c r="O11" t="n">
-        <v>3309.637478657746</v>
+        <v>3309.637478657741</v>
       </c>
       <c r="P11" t="n">
-        <v>3812.001969756844</v>
+        <v>3812.001969756838</v>
       </c>
       <c r="Q11" t="n">
-        <v>4141.084034493022</v>
+        <v>4141.084034493017</v>
       </c>
       <c r="R11" t="n">
-        <v>4247.099358528947</v>
+        <v>4247.099358528941</v>
       </c>
       <c r="S11" t="n">
-        <v>4154.204155052429</v>
+        <v>4154.204155052423</v>
       </c>
       <c r="T11" t="n">
-        <v>3951.568092484229</v>
+        <v>3951.568092484223</v>
       </c>
       <c r="U11" t="n">
-        <v>3698.098685958821</v>
+        <v>3698.098685958814</v>
       </c>
       <c r="V11" t="n">
-        <v>3367.03579861525</v>
+        <v>3367.035798615243</v>
       </c>
       <c r="W11" t="n">
-        <v>3367.03579861525</v>
+        <v>3014.267143345129</v>
       </c>
       <c r="X11" t="n">
-        <v>2993.57004035417</v>
+        <v>2640.801385084049</v>
       </c>
       <c r="Y11" t="n">
-        <v>2603.430708378358</v>
+        <v>2640.801385084049</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.4438538592952</v>
       </c>
       <c r="H12" t="n">
-        <v>89.88665876463941</v>
+        <v>89.88665876463938</v>
       </c>
       <c r="I12" t="n">
-        <v>84.94198717057894</v>
+        <v>84.94198717057881</v>
       </c>
       <c r="J12" t="n">
-        <v>216.4402416107848</v>
+        <v>84.94198717057881</v>
       </c>
       <c r="K12" t="n">
-        <v>519.3465279078303</v>
+        <v>387.8482734676238</v>
       </c>
       <c r="L12" t="n">
-        <v>972.963951946849</v>
+        <v>841.4656975066418</v>
       </c>
       <c r="M12" t="n">
-        <v>1521.670958221007</v>
+        <v>1390.172703780799</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.670958221007</v>
+        <v>1967.810996698126</v>
       </c>
       <c r="O12" t="n">
-        <v>2027.877350241092</v>
+        <v>2474.01738871821</v>
       </c>
       <c r="P12" t="n">
-        <v>2414.819541537778</v>
+        <v>2555.663465412278</v>
       </c>
       <c r="Q12" t="n">
-        <v>2530.950303275929</v>
+        <v>2555.663465412278</v>
       </c>
       <c r="R12" t="n">
         <v>2555.663465412278</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.7816370854102</v>
+        <v>928.9985964178859</v>
       </c>
       <c r="C13" t="n">
-        <v>469.9997476042385</v>
+        <v>760.062413489979</v>
       </c>
       <c r="D13" t="n">
-        <v>319.8831081919027</v>
+        <v>609.9457740776433</v>
       </c>
       <c r="E13" t="n">
-        <v>171.9700146095095</v>
+        <v>462.0326804952501</v>
       </c>
       <c r="F13" t="n">
-        <v>171.9700146095095</v>
+        <v>315.1427329973397</v>
       </c>
       <c r="G13" t="n">
-        <v>171.9700146095095</v>
+        <v>315.1427329973397</v>
       </c>
       <c r="H13" t="n">
         <v>171.9700146095095</v>
       </c>
       <c r="I13" t="n">
-        <v>84.94198717057894</v>
+        <v>84.94198717057881</v>
       </c>
       <c r="J13" t="n">
-        <v>153.7922901406059</v>
+        <v>153.7922901406056</v>
       </c>
       <c r="K13" t="n">
-        <v>396.7713246112913</v>
+        <v>396.7713246112907</v>
       </c>
       <c r="L13" t="n">
-        <v>763.2272685830787</v>
+        <v>763.2272685830778</v>
       </c>
       <c r="M13" t="n">
-        <v>1159.992803681106</v>
+        <v>1159.992803681105</v>
       </c>
       <c r="N13" t="n">
-        <v>1552.758757590931</v>
+        <v>1552.758757590929</v>
       </c>
       <c r="O13" t="n">
-        <v>1899.525391523949</v>
+        <v>1899.525391523947</v>
       </c>
       <c r="P13" t="n">
-        <v>2172.723470411923</v>
+        <v>2172.723470411921</v>
       </c>
       <c r="Q13" t="n">
-        <v>2278.436579112747</v>
+        <v>2278.436579112744</v>
       </c>
       <c r="R13" t="n">
-        <v>2204.002789230466</v>
+        <v>2204.002789230463</v>
       </c>
       <c r="S13" t="n">
-        <v>2018.284436664548</v>
+        <v>2204.002789230463</v>
       </c>
       <c r="T13" t="n">
-        <v>1797.98090931723</v>
+        <v>1983.699261883145</v>
       </c>
       <c r="U13" t="n">
-        <v>1508.896720163084</v>
+        <v>1983.699261883145</v>
       </c>
       <c r="V13" t="n">
-        <v>1254.212231957197</v>
+        <v>1848.846361326634</v>
       </c>
       <c r="W13" t="n">
-        <v>1254.212231957197</v>
+        <v>1559.429191289673</v>
       </c>
       <c r="X13" t="n">
-        <v>1026.22268105918</v>
+        <v>1331.439640391656</v>
       </c>
       <c r="Y13" t="n">
-        <v>805.43010191565</v>
+        <v>1110.647061248126</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2329.994694148028</v>
+        <v>2329.99469414803</v>
       </c>
       <c r="C14" t="n">
-        <v>1961.032177207616</v>
+        <v>1961.032177207618</v>
       </c>
       <c r="D14" t="n">
-        <v>1602.766478600866</v>
+        <v>1602.766478600868</v>
       </c>
       <c r="E14" t="n">
-        <v>1216.978226002622</v>
+        <v>1216.978226002623</v>
       </c>
       <c r="F14" t="n">
-        <v>805.9923212130141</v>
+        <v>805.9923212130159</v>
       </c>
       <c r="G14" t="n">
-        <v>391.7807846759027</v>
+        <v>391.7807846759044</v>
       </c>
       <c r="H14" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739092</v>
       </c>
       <c r="I14" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J14" t="n">
-        <v>354.7015150559445</v>
+        <v>522.1071640762975</v>
       </c>
       <c r="K14" t="n">
-        <v>795.853051699358</v>
+        <v>963.2587007197111</v>
       </c>
       <c r="L14" t="n">
-        <v>1718.668219350761</v>
+        <v>1547.447953071095</v>
       </c>
       <c r="M14" t="n">
-        <v>2400.360761254061</v>
+        <v>2229.140494974394</v>
       </c>
       <c r="N14" t="n">
-        <v>3097.697609551799</v>
+        <v>2926.477343272133</v>
       </c>
       <c r="O14" t="n">
-        <v>3742.837760006957</v>
+        <v>3677.778504332707</v>
       </c>
       <c r="P14" t="n">
-        <v>4258.948951716585</v>
+        <v>4193.889696042334</v>
       </c>
       <c r="Q14" t="n">
-        <v>4598.354216115877</v>
+        <v>4533.294960441626</v>
       </c>
       <c r="R14" t="n">
-        <v>4710.374468358102</v>
+        <v>4710.374468358104</v>
       </c>
       <c r="S14" t="n">
-        <v>4619.701868952913</v>
+        <v>4619.701868952915</v>
       </c>
       <c r="T14" t="n">
-        <v>4417.492770699458</v>
+        <v>4417.49277069946</v>
       </c>
       <c r="U14" t="n">
-        <v>4164.031167062725</v>
+        <v>4164.031167062728</v>
       </c>
       <c r="V14" t="n">
-        <v>3832.968279719156</v>
+        <v>3832.968279719157</v>
       </c>
       <c r="W14" t="n">
-        <v>3480.199624449041</v>
+        <v>3480.199624449043</v>
       </c>
       <c r="X14" t="n">
-        <v>3106.733866187962</v>
+        <v>3106.733866187963</v>
       </c>
       <c r="Y14" t="n">
-        <v>2716.59453421215</v>
+        <v>2716.594534212152</v>
       </c>
     </row>
     <row r="15">
@@ -5346,37 +5346,37 @@
         <v>319.3110466461496</v>
       </c>
       <c r="G15" t="n">
-        <v>183.4085758734729</v>
+        <v>183.408575873473</v>
       </c>
       <c r="H15" t="n">
-        <v>97.35539171809856</v>
+        <v>97.35539171809859</v>
       </c>
       <c r="I15" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J15" t="n">
-        <v>230.5380995476783</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="K15" t="n">
-        <v>541.7036514912122</v>
+        <v>278.4297722108101</v>
       </c>
       <c r="L15" t="n">
-        <v>841.4819646502468</v>
+        <v>278.4297722108101</v>
       </c>
       <c r="M15" t="n">
-        <v>1403.148684545765</v>
+        <v>840.0964921063286</v>
       </c>
       <c r="N15" t="n">
-        <v>1403.148684545765</v>
+        <v>1431.037503701743</v>
       </c>
       <c r="O15" t="n">
-        <v>1921.524465259254</v>
+        <v>1949.413284415232</v>
       </c>
       <c r="P15" t="n">
-        <v>2318.233663854656</v>
+        <v>2346.122483010633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R15" t="n">
         <v>2561.392879960832</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>805.8463147143011</v>
+        <v>932.2561727539804</v>
       </c>
       <c r="C16" t="n">
-        <v>636.9101317863942</v>
+        <v>763.3199898260735</v>
       </c>
       <c r="D16" t="n">
-        <v>636.9101317863943</v>
+        <v>613.2033504137378</v>
       </c>
       <c r="E16" t="n">
-        <v>636.9101317863943</v>
+        <v>465.2902568313447</v>
       </c>
       <c r="F16" t="n">
-        <v>490.020184288484</v>
+        <v>322.7035238741795</v>
       </c>
       <c r="G16" t="n">
         <v>322.7035238741795</v>
       </c>
       <c r="H16" t="n">
-        <v>179.919794676902</v>
+        <v>179.9197946769021</v>
       </c>
       <c r="I16" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J16" t="n">
         <v>166.0894570336343</v>
       </c>
       <c r="K16" t="n">
-        <v>414.0504478911743</v>
+        <v>414.0504478911745</v>
       </c>
       <c r="L16" t="n">
-        <v>786.8815808105851</v>
+        <v>786.8815808105853</v>
       </c>
       <c r="M16" t="n">
         <v>1190.368858786432</v>
@@ -5467,19 +5467,19 @@
         <v>1925.139961038376</v>
       </c>
       <c r="U16" t="n">
-        <v>1636.058158320981</v>
+        <v>1925.139961038376</v>
       </c>
       <c r="V16" t="n">
-        <v>1381.373670115094</v>
+        <v>1670.455472832489</v>
       </c>
       <c r="W16" t="n">
-        <v>1208.287358688071</v>
+        <v>1381.038302795528</v>
       </c>
       <c r="X16" t="n">
-        <v>1208.287358688071</v>
+        <v>1153.048751897511</v>
       </c>
       <c r="Y16" t="n">
-        <v>987.4947795445408</v>
+        <v>932.2561727539804</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2329.994694148028</v>
+        <v>2329.994694148029</v>
       </c>
       <c r="C17" t="n">
-        <v>1961.032177207615</v>
+        <v>1961.032177207617</v>
       </c>
       <c r="D17" t="n">
-        <v>1602.766478600865</v>
+        <v>1602.766478600867</v>
       </c>
       <c r="E17" t="n">
-        <v>1216.978226002621</v>
+        <v>1216.978226002622</v>
       </c>
       <c r="F17" t="n">
-        <v>805.992321213013</v>
+        <v>805.9923212130147</v>
       </c>
       <c r="G17" t="n">
-        <v>391.7807846759017</v>
+        <v>391.7807846759034</v>
       </c>
       <c r="H17" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739083</v>
       </c>
       <c r="I17" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J17" t="n">
-        <v>354.7015150559445</v>
+        <v>522.1071640762975</v>
       </c>
       <c r="K17" t="n">
-        <v>795.853051699358</v>
+        <v>1069.419711325127</v>
       </c>
       <c r="L17" t="n">
-        <v>1380.042304050742</v>
+        <v>1653.608963676511</v>
       </c>
       <c r="M17" t="n">
-        <v>2061.734845954041</v>
+        <v>2335.301505579811</v>
       </c>
       <c r="N17" t="n">
-        <v>3097.697609551799</v>
+        <v>3032.638353877549</v>
       </c>
       <c r="O17" t="n">
-        <v>3742.837760006957</v>
+        <v>3677.778504332707</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.948951716585</v>
+        <v>4193.889696042334</v>
       </c>
       <c r="Q17" t="n">
-        <v>4598.354216115877</v>
+        <v>4533.294960441626</v>
       </c>
       <c r="R17" t="n">
-        <v>4710.374468358102</v>
+        <v>4710.374468358104</v>
       </c>
       <c r="S17" t="n">
-        <v>4619.701868952913</v>
+        <v>4619.701868952915</v>
       </c>
       <c r="T17" t="n">
-        <v>4417.492770699458</v>
+        <v>4417.49277069946</v>
       </c>
       <c r="U17" t="n">
-        <v>4164.031167062726</v>
+        <v>4164.031167062728</v>
       </c>
       <c r="V17" t="n">
-        <v>3832.968279719155</v>
+        <v>3832.968279719157</v>
       </c>
       <c r="W17" t="n">
-        <v>3480.199624449041</v>
+        <v>3480.199624449042</v>
       </c>
       <c r="X17" t="n">
-        <v>3106.733866187961</v>
+        <v>3106.733866187963</v>
       </c>
       <c r="Y17" t="n">
-        <v>2716.594534212149</v>
+        <v>2716.594534212151</v>
       </c>
     </row>
     <row r="18">
@@ -5583,13 +5583,13 @@
         <v>319.3110466461496</v>
       </c>
       <c r="G18" t="n">
-        <v>183.4085758734729</v>
+        <v>183.408575873473</v>
       </c>
       <c r="H18" t="n">
-        <v>97.35539171809856</v>
+        <v>97.35539171809859</v>
       </c>
       <c r="I18" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J18" t="n">
         <v>230.5380995476783</v>
@@ -5598,22 +5598,22 @@
         <v>541.7036514912122</v>
       </c>
       <c r="L18" t="n">
-        <v>984.1871307185201</v>
+        <v>1006.426677448622</v>
       </c>
       <c r="M18" t="n">
-        <v>1545.853850614038</v>
+        <v>1055.366889056527</v>
       </c>
       <c r="N18" t="n">
-        <v>2136.794862209453</v>
+        <v>1646.307900651942</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.794862209453</v>
+        <v>2164.68368136543</v>
       </c>
       <c r="P18" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q18" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R18" t="n">
         <v>2561.392879960832</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>539.1271698598013</v>
+        <v>794.1318105119688</v>
       </c>
       <c r="C19" t="n">
-        <v>539.1271698598013</v>
+        <v>625.1956275840619</v>
       </c>
       <c r="D19" t="n">
-        <v>389.0105304474655</v>
+        <v>490.0201842884841</v>
       </c>
       <c r="E19" t="n">
-        <v>241.0974368650724</v>
+        <v>490.0201842884841</v>
       </c>
       <c r="F19" t="n">
-        <v>94.20748936716204</v>
+        <v>490.0201842884841</v>
       </c>
       <c r="G19" t="n">
-        <v>94.20748936716204</v>
+        <v>322.7035238741796</v>
       </c>
       <c r="H19" t="n">
-        <v>94.20748936716204</v>
+        <v>179.9197946769021</v>
       </c>
       <c r="I19" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J19" t="n">
         <v>166.0894570336343</v>
       </c>
       <c r="K19" t="n">
-        <v>414.0504478911743</v>
+        <v>414.0504478911745</v>
       </c>
       <c r="L19" t="n">
-        <v>786.8815808105851</v>
+        <v>786.8815808105852</v>
       </c>
       <c r="M19" t="n">
         <v>1190.368858786432</v>
       </c>
       <c r="N19" t="n">
-        <v>1589.696727552276</v>
+        <v>1589.696727552277</v>
       </c>
       <c r="O19" t="n">
         <v>1942.524351931525</v>
@@ -5695,28 +5695,28 @@
         <v>2330.212436863831</v>
       </c>
       <c r="R19" t="n">
-        <v>2330.212436863831</v>
+        <v>2257.745866343997</v>
       </c>
       <c r="S19" t="n">
-        <v>2145.256550840131</v>
+        <v>2257.745866343997</v>
       </c>
       <c r="T19" t="n">
-        <v>1925.139961038376</v>
+        <v>2257.745866343997</v>
       </c>
       <c r="U19" t="n">
-        <v>1636.058158320981</v>
+        <v>1968.664063626604</v>
       </c>
       <c r="V19" t="n">
-        <v>1458.974934768549</v>
+        <v>1713.979575420717</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.557764731588</v>
+        <v>1424.562405383756</v>
       </c>
       <c r="X19" t="n">
-        <v>941.568213833571</v>
+        <v>1196.572854485739</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.775634690041</v>
+        <v>975.7802753422085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2329.994694148028</v>
       </c>
       <c r="C20" t="n">
-        <v>1961.032177207616</v>
+        <v>1961.032177207617</v>
       </c>
       <c r="D20" t="n">
-        <v>1602.766478600866</v>
+        <v>1602.766478600867</v>
       </c>
       <c r="E20" t="n">
-        <v>1216.978226002622</v>
+        <v>1216.978226002623</v>
       </c>
       <c r="F20" t="n">
-        <v>805.9923212130141</v>
+        <v>805.9923212130151</v>
       </c>
       <c r="G20" t="n">
-        <v>391.7807846759027</v>
+        <v>391.7807846759037</v>
       </c>
       <c r="H20" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739085</v>
       </c>
       <c r="I20" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J20" t="n">
         <v>354.7015150559445</v>
       </c>
       <c r="K20" t="n">
-        <v>1116.757010144811</v>
+        <v>795.853051699358</v>
       </c>
       <c r="L20" t="n">
-        <v>1700.946262496195</v>
+        <v>1380.042304050742</v>
       </c>
       <c r="M20" t="n">
-        <v>2382.638804399494</v>
+        <v>2400.360761254063</v>
       </c>
       <c r="N20" t="n">
-        <v>3097.697609551799</v>
+        <v>3097.697609551801</v>
       </c>
       <c r="O20" t="n">
-        <v>3742.837760006957</v>
+        <v>3742.837760006959</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.948951716585</v>
+        <v>4258.948951716587</v>
       </c>
       <c r="Q20" t="n">
-        <v>4598.354216115877</v>
+        <v>4598.354216115878</v>
       </c>
       <c r="R20" t="n">
-        <v>4710.374468358102</v>
+        <v>4710.374468358104</v>
       </c>
       <c r="S20" t="n">
-        <v>4619.701868952913</v>
+        <v>4619.701868952915</v>
       </c>
       <c r="T20" t="n">
-        <v>4417.492770699458</v>
+        <v>4417.492770699459</v>
       </c>
       <c r="U20" t="n">
-        <v>4164.031167062725</v>
+        <v>4164.031167062727</v>
       </c>
       <c r="V20" t="n">
-        <v>3832.968279719154</v>
+        <v>3832.968279719156</v>
       </c>
       <c r="W20" t="n">
-        <v>3480.199624449041</v>
+        <v>3480.199624449042</v>
       </c>
       <c r="X20" t="n">
         <v>3106.733866187962</v>
@@ -5820,37 +5820,37 @@
         <v>319.3110466461496</v>
       </c>
       <c r="G21" t="n">
-        <v>183.4085758734729</v>
+        <v>183.408575873473</v>
       </c>
       <c r="H21" t="n">
-        <v>97.35539171809856</v>
+        <v>97.35539171809859</v>
       </c>
       <c r="I21" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J21" t="n">
         <v>230.5380995476783</v>
       </c>
       <c r="K21" t="n">
-        <v>541.7036514912122</v>
+        <v>230.5380995476783</v>
       </c>
       <c r="L21" t="n">
-        <v>1006.426677448622</v>
+        <v>493.7001691610088</v>
       </c>
       <c r="M21" t="n">
-        <v>1568.093397344141</v>
+        <v>1055.366889056527</v>
       </c>
       <c r="N21" t="n">
-        <v>2159.034408939555</v>
+        <v>1646.307900651942</v>
       </c>
       <c r="O21" t="n">
-        <v>2159.034408939555</v>
+        <v>2164.68368136543</v>
       </c>
       <c r="P21" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q21" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R21" t="n">
         <v>2561.392879960832</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>461.5259052063466</v>
+        <v>641.7563462144221</v>
       </c>
       <c r="C22" t="n">
-        <v>461.5259052063466</v>
+        <v>472.8201632865153</v>
       </c>
       <c r="D22" t="n">
-        <v>384.9043121468326</v>
+        <v>322.7035238741795</v>
       </c>
       <c r="E22" t="n">
-        <v>236.9912185644395</v>
+        <v>322.7035238741796</v>
       </c>
       <c r="F22" t="n">
-        <v>236.9912185644395</v>
+        <v>322.7035238741796</v>
       </c>
       <c r="G22" t="n">
-        <v>236.9912185644395</v>
+        <v>322.7035238741796</v>
       </c>
       <c r="H22" t="n">
-        <v>94.20748936716204</v>
+        <v>179.9197946769021</v>
       </c>
       <c r="I22" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J22" t="n">
         <v>166.0894570336343</v>
       </c>
       <c r="K22" t="n">
-        <v>414.0504478911745</v>
+        <v>414.0504478911748</v>
       </c>
       <c r="L22" t="n">
-        <v>786.8815808105854</v>
+        <v>786.8815808105855</v>
       </c>
       <c r="M22" t="n">
         <v>1190.368858786433</v>
@@ -5929,31 +5929,31 @@
         <v>2220.908655214704</v>
       </c>
       <c r="Q22" t="n">
-        <v>2330.21243686383</v>
+        <v>2330.212436863831</v>
       </c>
       <c r="R22" t="n">
-        <v>2330.21243686383</v>
+        <v>2257.745866343998</v>
       </c>
       <c r="S22" t="n">
-        <v>2145.256550840131</v>
+        <v>2072.789980320299</v>
       </c>
       <c r="T22" t="n">
-        <v>1925.139961038375</v>
+        <v>1852.673390518543</v>
       </c>
       <c r="U22" t="n">
-        <v>1636.058158320981</v>
+        <v>1563.591587801149</v>
       </c>
       <c r="V22" t="n">
-        <v>1381.373670115094</v>
+        <v>1333.614560225152</v>
       </c>
       <c r="W22" t="n">
-        <v>1091.956500078134</v>
+        <v>1044.197390188192</v>
       </c>
       <c r="X22" t="n">
-        <v>863.9669491801163</v>
+        <v>1044.197390188192</v>
       </c>
       <c r="Y22" t="n">
-        <v>643.1743700365863</v>
+        <v>823.4048110446619</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2329.994694148028</v>
       </c>
       <c r="C23" t="n">
-        <v>1961.032177207616</v>
+        <v>1961.032177207617</v>
       </c>
       <c r="D23" t="n">
         <v>1602.766478600866</v>
@@ -5975,61 +5975,61 @@
         <v>1216.978226002622</v>
       </c>
       <c r="F23" t="n">
-        <v>805.9923212130143</v>
+        <v>805.9923212130145</v>
       </c>
       <c r="G23" t="n">
-        <v>391.7807846759029</v>
+        <v>391.7807846759028</v>
       </c>
       <c r="H23" t="n">
         <v>103.0140158739076</v>
       </c>
       <c r="I23" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J23" t="n">
-        <v>354.7015150559445</v>
+        <v>522.1071640762975</v>
       </c>
       <c r="K23" t="n">
-        <v>795.853051699358</v>
+        <v>1069.419711325127</v>
       </c>
       <c r="L23" t="n">
-        <v>1380.042304050742</v>
+        <v>1653.608963676511</v>
       </c>
       <c r="M23" t="n">
-        <v>2400.360761254061</v>
+        <v>2335.301505579811</v>
       </c>
       <c r="N23" t="n">
-        <v>3097.697609551799</v>
+        <v>3032.638353877549</v>
       </c>
       <c r="O23" t="n">
-        <v>3742.837760006957</v>
+        <v>3677.778504332707</v>
       </c>
       <c r="P23" t="n">
-        <v>4258.948951716585</v>
+        <v>4193.889696042334</v>
       </c>
       <c r="Q23" t="n">
-        <v>4598.354216115877</v>
+        <v>4533.294960441626</v>
       </c>
       <c r="R23" t="n">
-        <v>4710.374468358102</v>
+        <v>4710.374468358104</v>
       </c>
       <c r="S23" t="n">
-        <v>4619.701868952913</v>
+        <v>4619.701868952915</v>
       </c>
       <c r="T23" t="n">
         <v>4417.492770699459</v>
       </c>
       <c r="U23" t="n">
-        <v>4164.031167062726</v>
+        <v>4164.031167062727</v>
       </c>
       <c r="V23" t="n">
-        <v>3832.968279719155</v>
+        <v>3832.968279719156</v>
       </c>
       <c r="W23" t="n">
-        <v>3480.199624449041</v>
+        <v>3480.199624449042</v>
       </c>
       <c r="X23" t="n">
-        <v>3106.733866187961</v>
+        <v>3106.733866187962</v>
       </c>
       <c r="Y23" t="n">
         <v>2716.59453421215</v>
@@ -6057,37 +6057,37 @@
         <v>319.3110466461496</v>
       </c>
       <c r="G24" t="n">
-        <v>183.4085758734729</v>
+        <v>183.408575873473</v>
       </c>
       <c r="H24" t="n">
-        <v>97.35539171809856</v>
+        <v>97.35539171809859</v>
       </c>
       <c r="I24" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J24" t="n">
-        <v>230.5380995476783</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="K24" t="n">
-        <v>541.7036514912122</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="L24" t="n">
-        <v>647.2501516502342</v>
+        <v>558.9305153245721</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.916871545753</v>
+        <v>1120.597235220091</v>
       </c>
       <c r="N24" t="n">
-        <v>1799.857883141167</v>
+        <v>1711.538246815505</v>
       </c>
       <c r="O24" t="n">
-        <v>2318.233663854656</v>
+        <v>2229.914027528994</v>
       </c>
       <c r="P24" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q24" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R24" t="n">
         <v>2561.392879960832</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>936.5593872947255</v>
+        <v>389.0593346865136</v>
       </c>
       <c r="C25" t="n">
-        <v>767.6232043668186</v>
+        <v>389.0593346865136</v>
       </c>
       <c r="D25" t="n">
-        <v>617.5065649544829</v>
+        <v>389.0593346865136</v>
       </c>
       <c r="E25" t="n">
-        <v>469.5934713720898</v>
+        <v>383.8811660623498</v>
       </c>
       <c r="F25" t="n">
-        <v>322.7035238741795</v>
+        <v>236.9912185644396</v>
       </c>
       <c r="G25" t="n">
-        <v>322.7035238741795</v>
+        <v>236.9912185644396</v>
       </c>
       <c r="H25" t="n">
-        <v>179.919794676902</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="I25" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716207</v>
       </c>
       <c r="J25" t="n">
         <v>166.0894570336343</v>
       </c>
       <c r="K25" t="n">
-        <v>414.0504478911745</v>
+        <v>414.0504478911748</v>
       </c>
       <c r="L25" t="n">
-        <v>786.8815808105851</v>
+        <v>786.8815808105855</v>
       </c>
       <c r="M25" t="n">
-        <v>1190.368858786432</v>
+        <v>1190.368858786433</v>
       </c>
       <c r="N25" t="n">
         <v>1589.696727552277</v>
@@ -6169,28 +6169,28 @@
         <v>2330.212436863831</v>
       </c>
       <c r="R25" t="n">
-        <v>2330.212436863831</v>
+        <v>2257.745866343998</v>
       </c>
       <c r="S25" t="n">
-        <v>2145.256550840131</v>
+        <v>2072.789980320299</v>
       </c>
       <c r="T25" t="n">
-        <v>1925.139961038376</v>
+        <v>1852.673390518543</v>
       </c>
       <c r="U25" t="n">
-        <v>1636.058158320981</v>
+        <v>1563.591587801148</v>
       </c>
       <c r="V25" t="n">
-        <v>1636.058158320981</v>
+        <v>1308.907099595261</v>
       </c>
       <c r="W25" t="n">
-        <v>1346.640988284021</v>
+        <v>1019.489929558301</v>
       </c>
       <c r="X25" t="n">
-        <v>1118.651437386003</v>
+        <v>791.5003786602833</v>
       </c>
       <c r="Y25" t="n">
-        <v>936.5593872947255</v>
+        <v>570.7077995167532</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2329.994694148028</v>
+        <v>2329.99469414803</v>
       </c>
       <c r="C26" t="n">
-        <v>1961.032177207616</v>
+        <v>1961.032177207618</v>
       </c>
       <c r="D26" t="n">
-        <v>1602.766478600866</v>
+        <v>1602.766478600868</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.978226002622</v>
+        <v>1216.978226002623</v>
       </c>
       <c r="F26" t="n">
-        <v>805.9923212130143</v>
+        <v>805.9923212130159</v>
       </c>
       <c r="G26" t="n">
-        <v>391.7807846759033</v>
+        <v>391.7807846759046</v>
       </c>
       <c r="H26" t="n">
-        <v>103.0140158739077</v>
+        <v>103.0140158739093</v>
       </c>
       <c r="I26" t="n">
-        <v>94.20748936716205</v>
+        <v>94.20748936716375</v>
       </c>
       <c r="J26" t="n">
-        <v>354.7015150559445</v>
+        <v>354.7015150559462</v>
       </c>
       <c r="K26" t="n">
-        <v>795.853051699358</v>
+        <v>795.8530516993598</v>
       </c>
       <c r="L26" t="n">
-        <v>1380.042304050742</v>
+        <v>1380.042304050743</v>
       </c>
       <c r="M26" t="n">
-        <v>2061.734845954041</v>
+        <v>2061.734845954043</v>
       </c>
       <c r="N26" t="n">
-        <v>3097.6976095518</v>
+        <v>2759.071694251782</v>
       </c>
       <c r="O26" t="n">
-        <v>3742.837760006958</v>
+        <v>3742.837760007043</v>
       </c>
       <c r="P26" t="n">
-        <v>4258.948951716586</v>
+        <v>4258.94895171667</v>
       </c>
       <c r="Q26" t="n">
-        <v>4598.354216115878</v>
+        <v>4598.354216115962</v>
       </c>
       <c r="R26" t="n">
-        <v>4710.374468358103</v>
+        <v>4710.374468358187</v>
       </c>
       <c r="S26" t="n">
-        <v>4619.701868952914</v>
+        <v>4619.701868952999</v>
       </c>
       <c r="T26" t="n">
-        <v>4417.492770699459</v>
+        <v>4417.492770699543</v>
       </c>
       <c r="U26" t="n">
-        <v>4164.031167062726</v>
+        <v>4164.031167062811</v>
       </c>
       <c r="V26" t="n">
-        <v>3832.968279719155</v>
+        <v>3832.968279719158</v>
       </c>
       <c r="W26" t="n">
-        <v>3480.199624449041</v>
+        <v>3480.199624449043</v>
       </c>
       <c r="X26" t="n">
-        <v>3106.733866187961</v>
+        <v>3106.733866187963</v>
       </c>
       <c r="Y26" t="n">
-        <v>2716.594534212149</v>
+        <v>2716.594534212152</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>948.4704985670984</v>
+        <v>948.4704985671002</v>
       </c>
       <c r="C27" t="n">
-        <v>774.0174692859714</v>
+        <v>774.0174692859732</v>
       </c>
       <c r="D27" t="n">
-        <v>625.0830596247201</v>
+        <v>625.083059624722</v>
       </c>
       <c r="E27" t="n">
-        <v>465.8456046192647</v>
+        <v>465.8456046192664</v>
       </c>
       <c r="F27" t="n">
-        <v>319.3110466461496</v>
+        <v>319.3110466461513</v>
       </c>
       <c r="G27" t="n">
-        <v>183.408575873473</v>
+        <v>183.4085758734746</v>
       </c>
       <c r="H27" t="n">
-        <v>97.35539171809857</v>
+        <v>97.35539171810026</v>
       </c>
       <c r="I27" t="n">
-        <v>94.20748936716205</v>
+        <v>94.20748936716375</v>
       </c>
       <c r="J27" t="n">
-        <v>230.5380995476783</v>
+        <v>94.20748936716375</v>
       </c>
       <c r="K27" t="n">
-        <v>230.5380995476783</v>
+        <v>94.20748936716375</v>
       </c>
       <c r="L27" t="n">
-        <v>695.2611255050882</v>
+        <v>558.9305153245737</v>
       </c>
       <c r="M27" t="n">
-        <v>1256.927845400607</v>
+        <v>1120.597235220092</v>
       </c>
       <c r="N27" t="n">
-        <v>1847.868856996021</v>
+        <v>1711.538246815506</v>
       </c>
       <c r="O27" t="n">
-        <v>1921.524465259254</v>
+        <v>2229.914027528995</v>
       </c>
       <c r="P27" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960834</v>
       </c>
       <c r="Q27" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960834</v>
       </c>
       <c r="R27" t="n">
-        <v>2561.392879960832</v>
+        <v>2561.392879960834</v>
       </c>
       <c r="S27" t="n">
-        <v>2440.510982430525</v>
+        <v>2440.510982430527</v>
       </c>
       <c r="T27" t="n">
-        <v>2249.724641817741</v>
+        <v>2249.724641817742</v>
       </c>
       <c r="U27" t="n">
-        <v>2021.687099517597</v>
+        <v>2021.687099517599</v>
       </c>
       <c r="V27" t="n">
-        <v>1786.534991285855</v>
+        <v>1786.534991285856</v>
       </c>
       <c r="W27" t="n">
-        <v>1532.297634557653</v>
+        <v>1532.297634557655</v>
       </c>
       <c r="X27" t="n">
-        <v>1324.44613435212</v>
+        <v>1324.446134352122</v>
       </c>
       <c r="Y27" t="n">
-        <v>1116.685835587166</v>
+        <v>1116.685835587168</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1103.87604770903</v>
+        <v>1103.876047709032</v>
       </c>
       <c r="C28" t="n">
-        <v>934.9398647811233</v>
+        <v>934.9398647811249</v>
       </c>
       <c r="D28" t="n">
-        <v>784.8232253687875</v>
+        <v>784.8232253687892</v>
       </c>
       <c r="E28" t="n">
-        <v>636.9101317863943</v>
+        <v>636.9101317863961</v>
       </c>
       <c r="F28" t="n">
-        <v>490.020184288484</v>
+        <v>490.0201842884857</v>
       </c>
       <c r="G28" t="n">
-        <v>322.7035238741795</v>
+        <v>322.7035238741812</v>
       </c>
       <c r="H28" t="n">
-        <v>179.919794676902</v>
+        <v>179.9197946769037</v>
       </c>
       <c r="I28" t="n">
-        <v>94.20748936716205</v>
+        <v>94.20748936716375</v>
       </c>
       <c r="J28" t="n">
-        <v>166.0894570336343</v>
+        <v>166.089457033636</v>
       </c>
       <c r="K28" t="n">
-        <v>414.0504478911743</v>
+        <v>414.0504478911762</v>
       </c>
       <c r="L28" t="n">
-        <v>786.8815808105851</v>
+        <v>786.8815808105869</v>
       </c>
       <c r="M28" t="n">
-        <v>1190.368858786432</v>
+        <v>1190.368858786434</v>
       </c>
       <c r="N28" t="n">
-        <v>1589.696727552277</v>
+        <v>1589.696727552279</v>
       </c>
       <c r="O28" t="n">
-        <v>1942.524351931525</v>
+        <v>1942.524351931527</v>
       </c>
       <c r="P28" t="n">
-        <v>2220.908655214704</v>
+        <v>2220.908655214706</v>
       </c>
       <c r="Q28" t="n">
-        <v>2330.212436863831</v>
+        <v>2330.212436863832</v>
       </c>
       <c r="R28" t="n">
-        <v>2330.212436863831</v>
+        <v>2257.745866343999</v>
       </c>
       <c r="S28" t="n">
-        <v>2145.256550840131</v>
+        <v>2072.7899803203</v>
       </c>
       <c r="T28" t="n">
-        <v>2145.256550840131</v>
+        <v>1852.673390518544</v>
       </c>
       <c r="U28" t="n">
-        <v>1856.174748122737</v>
+        <v>1734.306642580819</v>
       </c>
       <c r="V28" t="n">
-        <v>1601.49025991685</v>
+        <v>1734.306642580819</v>
       </c>
       <c r="W28" t="n">
-        <v>1601.49025991685</v>
+        <v>1734.306642580819</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.500709018833</v>
+        <v>1506.317091682801</v>
       </c>
       <c r="Y28" t="n">
-        <v>1152.708129875303</v>
+        <v>1285.524512539271</v>
       </c>
     </row>
     <row r="29">
@@ -6476,10 +6476,10 @@
         <v>2759.07169425178</v>
       </c>
       <c r="O29" t="n">
-        <v>3742.837760006958</v>
+        <v>3404.211844706938</v>
       </c>
       <c r="P29" t="n">
-        <v>4258.948951716586</v>
+        <v>4238.903757506333</v>
       </c>
       <c r="Q29" t="n">
         <v>4598.354216115878</v>
@@ -6540,28 +6540,28 @@
         <v>94.20748936716205</v>
       </c>
       <c r="J30" t="n">
-        <v>230.5380995476783</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="K30" t="n">
-        <v>347.484646992941</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="L30" t="n">
-        <v>812.2076729503509</v>
+        <v>558.9305153245721</v>
       </c>
       <c r="M30" t="n">
-        <v>812.2076729503509</v>
+        <v>1120.597235220091</v>
       </c>
       <c r="N30" t="n">
-        <v>1403.148684545765</v>
+        <v>1711.538246815505</v>
       </c>
       <c r="O30" t="n">
-        <v>1921.524465259254</v>
+        <v>2229.914027528994</v>
       </c>
       <c r="P30" t="n">
-        <v>2318.233663854656</v>
+        <v>2346.122483010633</v>
       </c>
       <c r="Q30" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R30" t="n">
         <v>2561.392879960832</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>936.559387294726</v>
+        <v>646.4817912300462</v>
       </c>
       <c r="C31" t="n">
-        <v>767.6232043668191</v>
+        <v>539.1271698598014</v>
       </c>
       <c r="D31" t="n">
-        <v>617.5065649544833</v>
+        <v>389.0105304474656</v>
       </c>
       <c r="E31" t="n">
-        <v>469.5934713720902</v>
+        <v>241.0974368650724</v>
       </c>
       <c r="F31" t="n">
-        <v>322.7035238741795</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="G31" t="n">
-        <v>322.7035238741795</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="H31" t="n">
-        <v>179.919794676902</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="I31" t="n">
         <v>94.20748936716205</v>
@@ -6637,34 +6637,34 @@
         <v>1942.524351931525</v>
       </c>
       <c r="P31" t="n">
-        <v>2220.908655214704</v>
+        <v>2220.908655214703</v>
       </c>
       <c r="Q31" t="n">
-        <v>2330.212436863831</v>
+        <v>2330.21243686383</v>
       </c>
       <c r="R31" t="n">
-        <v>2330.212436863831</v>
+        <v>2330.21243686383</v>
       </c>
       <c r="S31" t="n">
-        <v>2145.256550840131</v>
+        <v>2330.21243686383</v>
       </c>
       <c r="T31" t="n">
-        <v>1925.139961038376</v>
+        <v>2110.095847062074</v>
       </c>
       <c r="U31" t="n">
-        <v>1925.139961038376</v>
+        <v>1821.01404434468</v>
       </c>
       <c r="V31" t="n">
-        <v>1856.407152203474</v>
+        <v>1566.329556138793</v>
       </c>
       <c r="W31" t="n">
-        <v>1566.989982166513</v>
+        <v>1276.912386101833</v>
       </c>
       <c r="X31" t="n">
-        <v>1339.000431268496</v>
+        <v>1048.922835203816</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.207852124966</v>
+        <v>828.1302560602859</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>94.20748936716205</v>
       </c>
       <c r="J32" t="n">
-        <v>354.7015150559445</v>
+        <v>522.1071640762975</v>
       </c>
       <c r="K32" t="n">
-        <v>795.853051699358</v>
+        <v>1069.419711325126</v>
       </c>
       <c r="L32" t="n">
-        <v>1380.042304050742</v>
+        <v>1653.60896367651</v>
       </c>
       <c r="M32" t="n">
-        <v>2061.734845954041</v>
+        <v>2335.30150557981</v>
       </c>
       <c r="N32" t="n">
-        <v>3097.6976095518</v>
+        <v>3032.638353877548</v>
       </c>
       <c r="O32" t="n">
-        <v>3742.837760006958</v>
+        <v>3677.778504332706</v>
       </c>
       <c r="P32" t="n">
-        <v>4258.948951716586</v>
+        <v>4193.889696042334</v>
       </c>
       <c r="Q32" t="n">
-        <v>4598.354216115878</v>
+        <v>4533.294960441625</v>
       </c>
       <c r="R32" t="n">
         <v>4710.374468358103</v>
@@ -6780,25 +6780,25 @@
         <v>230.5380995476783</v>
       </c>
       <c r="K33" t="n">
-        <v>230.5380995476783</v>
+        <v>541.7036514912122</v>
       </c>
       <c r="L33" t="n">
-        <v>695.2611255050882</v>
+        <v>1006.426677448622</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.916871545753</v>
+        <v>1568.093397344141</v>
       </c>
       <c r="N33" t="n">
-        <v>1799.857883141167</v>
+        <v>2043.017099247343</v>
       </c>
       <c r="O33" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="P33" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q33" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R33" t="n">
         <v>2561.392879960832</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1018.163742399289</v>
+        <v>643.1743700365861</v>
       </c>
       <c r="C34" t="n">
-        <v>849.2275594713825</v>
+        <v>643.1743700365861</v>
       </c>
       <c r="D34" t="n">
-        <v>699.1109200590467</v>
+        <v>556.3271908617701</v>
       </c>
       <c r="E34" t="n">
-        <v>551.1978264766536</v>
+        <v>408.414097279377</v>
       </c>
       <c r="F34" t="n">
-        <v>404.3078789787432</v>
+        <v>261.5241497814666</v>
       </c>
       <c r="G34" t="n">
-        <v>236.9912185644395</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="H34" t="n">
         <v>94.20748936716205</v>
@@ -6859,7 +6859,7 @@
         <v>166.0894570336343</v>
       </c>
       <c r="K34" t="n">
-        <v>414.0504478911745</v>
+        <v>414.0504478911744</v>
       </c>
       <c r="L34" t="n">
         <v>786.8815808105853</v>
@@ -6877,31 +6877,31 @@
         <v>2220.908655214704</v>
       </c>
       <c r="Q34" t="n">
-        <v>2330.21243686383</v>
+        <v>2330.212436863831</v>
       </c>
       <c r="R34" t="n">
-        <v>2330.21243686383</v>
+        <v>2330.212436863831</v>
       </c>
       <c r="S34" t="n">
         <v>2145.256550840131</v>
       </c>
       <c r="T34" t="n">
-        <v>1925.139961038375</v>
+        <v>1925.139961038376</v>
       </c>
       <c r="U34" t="n">
-        <v>1925.139961038375</v>
+        <v>1636.058158320981</v>
       </c>
       <c r="V34" t="n">
-        <v>1670.455472832488</v>
+        <v>1381.373670115094</v>
       </c>
       <c r="W34" t="n">
-        <v>1381.038302795527</v>
+        <v>1091.956500078134</v>
       </c>
       <c r="X34" t="n">
-        <v>1153.04875189751</v>
+        <v>863.9669491801162</v>
       </c>
       <c r="Y34" t="n">
-        <v>1018.163742399289</v>
+        <v>643.1743700365861</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6923,46 @@
         <v>1216.978226002622</v>
       </c>
       <c r="F35" t="n">
-        <v>805.9923212130141</v>
+        <v>805.9923212130143</v>
       </c>
       <c r="G35" t="n">
-        <v>391.7807846759028</v>
+        <v>391.7807846759033</v>
       </c>
       <c r="H35" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739077</v>
       </c>
       <c r="I35" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="J35" t="n">
-        <v>354.7015150559445</v>
+        <v>418.076333928408</v>
       </c>
       <c r="K35" t="n">
-        <v>795.853051699358</v>
+        <v>859.2278705718215</v>
       </c>
       <c r="L35" t="n">
-        <v>1380.042304050742</v>
+        <v>1443.417122923205</v>
       </c>
       <c r="M35" t="n">
-        <v>2061.734845954041</v>
+        <v>2125.109664826505</v>
       </c>
       <c r="N35" t="n">
-        <v>3097.697609551799</v>
+        <v>2822.446513124243</v>
       </c>
       <c r="O35" t="n">
-        <v>3742.837760006957</v>
+        <v>3467.586663579401</v>
       </c>
       <c r="P35" t="n">
-        <v>4258.948951716585</v>
+        <v>3983.697855289028</v>
       </c>
       <c r="Q35" t="n">
-        <v>4598.354216115877</v>
+        <v>4533.294960441625</v>
       </c>
       <c r="R35" t="n">
-        <v>4710.374468358102</v>
+        <v>4710.374468358103</v>
       </c>
       <c r="S35" t="n">
-        <v>4619.701868952913</v>
+        <v>4619.701868952914</v>
       </c>
       <c r="T35" t="n">
         <v>4417.492770699459</v>
@@ -7005,13 +7005,13 @@
         <v>319.3110466461496</v>
       </c>
       <c r="G36" t="n">
-        <v>183.4085758734729</v>
+        <v>183.408575873473</v>
       </c>
       <c r="H36" t="n">
-        <v>97.35539171809856</v>
+        <v>97.35539171809857</v>
       </c>
       <c r="I36" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="J36" t="n">
         <v>230.5380995476783</v>
@@ -7029,13 +7029,13 @@
         <v>2159.034408939555</v>
       </c>
       <c r="O36" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="P36" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q36" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R36" t="n">
         <v>2561.392879960832</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.2506488168971</v>
+        <v>461.5259052063462</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3144658889901</v>
+        <v>292.5897222784392</v>
       </c>
       <c r="D37" t="n">
-        <v>551.1978264766543</v>
+        <v>292.5897222784392</v>
       </c>
       <c r="E37" t="n">
-        <v>551.1978264766543</v>
+        <v>241.0974368650724</v>
       </c>
       <c r="F37" t="n">
-        <v>404.3078789787439</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="G37" t="n">
-        <v>236.9912185644395</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="H37" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="I37" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="J37" t="n">
-        <v>166.0894570336343</v>
+        <v>166.0894570336345</v>
       </c>
       <c r="K37" t="n">
-        <v>414.0504478911745</v>
+        <v>414.0504478911746</v>
       </c>
       <c r="L37" t="n">
         <v>786.8815808105853</v>
@@ -7120,25 +7120,25 @@
         <v>2330.212436863831</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.564124413721</v>
+        <v>2145.256550840131</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.447534611965</v>
+        <v>1925.139961038376</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.365731894571</v>
+        <v>1636.058158320981</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.681243688684</v>
+        <v>1381.373670115094</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.681243688684</v>
+        <v>1091.956500078133</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.691692790667</v>
+        <v>863.966949180116</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.899113647137</v>
+        <v>643.1743700365859</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2329.994694148028</v>
       </c>
       <c r="C38" t="n">
-        <v>1961.032177207617</v>
+        <v>1961.032177207616</v>
       </c>
       <c r="D38" t="n">
         <v>1602.766478600866</v>
@@ -7160,13 +7160,13 @@
         <v>1216.978226002622</v>
       </c>
       <c r="F38" t="n">
-        <v>805.9923212130142</v>
+        <v>805.9923212130143</v>
       </c>
       <c r="G38" t="n">
-        <v>391.7807846759028</v>
+        <v>391.7807846759033</v>
       </c>
       <c r="H38" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739077</v>
       </c>
       <c r="I38" t="n">
         <v>94.20748936716205</v>
@@ -7175,22 +7175,22 @@
         <v>354.7015150559445</v>
       </c>
       <c r="K38" t="n">
-        <v>1116.757010144811</v>
+        <v>795.853051699358</v>
       </c>
       <c r="L38" t="n">
-        <v>1700.946262496195</v>
+        <v>1380.042304050742</v>
       </c>
       <c r="M38" t="n">
-        <v>2400.360761254062</v>
+        <v>2061.734845954041</v>
       </c>
       <c r="N38" t="n">
-        <v>3097.6976095518</v>
+        <v>2759.07169425178</v>
       </c>
       <c r="O38" t="n">
-        <v>3742.837760006958</v>
+        <v>3404.211844706938</v>
       </c>
       <c r="P38" t="n">
-        <v>4258.948951716586</v>
+        <v>4238.903757506333</v>
       </c>
       <c r="Q38" t="n">
         <v>4598.354216115878</v>
@@ -7205,19 +7205,19 @@
         <v>4417.492770699459</v>
       </c>
       <c r="U38" t="n">
-        <v>4164.031167062727</v>
+        <v>4164.031167062726</v>
       </c>
       <c r="V38" t="n">
-        <v>3832.968279719156</v>
+        <v>3832.968279719155</v>
       </c>
       <c r="W38" t="n">
-        <v>3480.199624449042</v>
+        <v>3480.199624449041</v>
       </c>
       <c r="X38" t="n">
-        <v>3106.733866187962</v>
+        <v>3106.733866187961</v>
       </c>
       <c r="Y38" t="n">
-        <v>2716.59453421215</v>
+        <v>2716.594534212149</v>
       </c>
     </row>
     <row r="39">
@@ -7263,16 +7263,16 @@
         <v>1568.093397344141</v>
       </c>
       <c r="N39" t="n">
-        <v>1568.093397344141</v>
+        <v>2159.034408939555</v>
       </c>
       <c r="O39" t="n">
-        <v>2086.46917805763</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="P39" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q39" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R39" t="n">
         <v>2561.392879960832</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>936.5593872947259</v>
+        <v>557.9467133753722</v>
       </c>
       <c r="C40" t="n">
-        <v>767.6232043668188</v>
+        <v>389.0105304474653</v>
       </c>
       <c r="D40" t="n">
-        <v>617.506564954483</v>
+        <v>389.0105304474653</v>
       </c>
       <c r="E40" t="n">
-        <v>469.5934713720899</v>
+        <v>241.0974368650723</v>
       </c>
       <c r="F40" t="n">
-        <v>322.7035238741795</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="G40" t="n">
-        <v>322.7035238741795</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="H40" t="n">
-        <v>179.919794676902</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="I40" t="n">
         <v>94.20748936716205</v>
@@ -7336,13 +7336,13 @@
         <v>414.0504478911745</v>
       </c>
       <c r="L40" t="n">
-        <v>786.8815808105853</v>
+        <v>786.8815808105855</v>
       </c>
       <c r="M40" t="n">
-        <v>1190.368858786432</v>
+        <v>1190.368858786433</v>
       </c>
       <c r="N40" t="n">
-        <v>1589.696727552276</v>
+        <v>1589.696727552277</v>
       </c>
       <c r="O40" t="n">
         <v>1942.524351931525</v>
@@ -7354,28 +7354,28 @@
         <v>2330.212436863831</v>
       </c>
       <c r="R40" t="n">
-        <v>2257.745866343997</v>
+        <v>2330.212436863831</v>
       </c>
       <c r="S40" t="n">
-        <v>2072.789980320298</v>
+        <v>2145.256550840131</v>
       </c>
       <c r="T40" t="n">
-        <v>1856.407152203474</v>
+        <v>1925.139961038376</v>
       </c>
       <c r="U40" t="n">
-        <v>1856.407152203474</v>
+        <v>1732.478966490007</v>
       </c>
       <c r="V40" t="n">
-        <v>1856.407152203474</v>
+        <v>1477.79447828412</v>
       </c>
       <c r="W40" t="n">
-        <v>1566.989982166513</v>
+        <v>1188.377308247159</v>
       </c>
       <c r="X40" t="n">
-        <v>1339.000431268496</v>
+        <v>960.387757349142</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.207852124965</v>
+        <v>739.5951782056119</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2329.994694148028</v>
       </c>
       <c r="C41" t="n">
-        <v>1961.032177207617</v>
+        <v>1961.032177207616</v>
       </c>
       <c r="D41" t="n">
         <v>1602.766478600866</v>
@@ -7397,46 +7397,46 @@
         <v>1216.978226002622</v>
       </c>
       <c r="F41" t="n">
-        <v>805.9923212130142</v>
+        <v>805.9923212130143</v>
       </c>
       <c r="G41" t="n">
-        <v>391.7807846759028</v>
+        <v>391.7807846759033</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739077</v>
       </c>
       <c r="I41" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="J41" t="n">
-        <v>354.7015150559445</v>
+        <v>522.1071640762975</v>
       </c>
       <c r="K41" t="n">
-        <v>1069.419711325125</v>
+        <v>963.2587007197111</v>
       </c>
       <c r="L41" t="n">
-        <v>1653.608963676509</v>
+        <v>1547.447953071095</v>
       </c>
       <c r="M41" t="n">
-        <v>2335.301505579809</v>
+        <v>2229.140494974394</v>
       </c>
       <c r="N41" t="n">
-        <v>3032.638353877547</v>
+        <v>2926.477343272133</v>
       </c>
       <c r="O41" t="n">
-        <v>3677.778504332705</v>
+        <v>3571.617493727291</v>
       </c>
       <c r="P41" t="n">
-        <v>4193.889696042333</v>
+        <v>4087.728685436919</v>
       </c>
       <c r="Q41" t="n">
-        <v>4533.294960441624</v>
+        <v>4533.294960441625</v>
       </c>
       <c r="R41" t="n">
-        <v>4710.374468358102</v>
+        <v>4710.374468358103</v>
       </c>
       <c r="S41" t="n">
-        <v>4619.701868952913</v>
+        <v>4619.701868952914</v>
       </c>
       <c r="T41" t="n">
         <v>4417.492770699459</v>
@@ -7445,16 +7445,16 @@
         <v>4164.031167062726</v>
       </c>
       <c r="V41" t="n">
-        <v>3832.968279719156</v>
+        <v>3832.968279719155</v>
       </c>
       <c r="W41" t="n">
-        <v>3480.199624449042</v>
+        <v>3480.199624449041</v>
       </c>
       <c r="X41" t="n">
-        <v>3106.733866187962</v>
+        <v>3106.733866187961</v>
       </c>
       <c r="Y41" t="n">
-        <v>2716.59453421215</v>
+        <v>2716.594534212149</v>
       </c>
     </row>
     <row r="42">
@@ -7479,13 +7479,13 @@
         <v>319.3110466461496</v>
       </c>
       <c r="G42" t="n">
-        <v>183.4085758734729</v>
+        <v>183.408575873473</v>
       </c>
       <c r="H42" t="n">
-        <v>97.35539171809856</v>
+        <v>97.35539171809857</v>
       </c>
       <c r="I42" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="J42" t="n">
         <v>230.5380995476783</v>
@@ -7494,22 +7494,22 @@
         <v>541.7036514912122</v>
       </c>
       <c r="L42" t="n">
-        <v>541.7036514912122</v>
+        <v>1006.426677448622</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.370371386731</v>
+        <v>1568.093397344141</v>
       </c>
       <c r="N42" t="n">
-        <v>1403.148684545765</v>
+        <v>2043.017099247343</v>
       </c>
       <c r="O42" t="n">
-        <v>1921.524465259254</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="P42" t="n">
-        <v>2318.233663854656</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q42" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R42" t="n">
         <v>2561.392879960832</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.3734262917666</v>
+        <v>970.7242977254962</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4372433638596</v>
+        <v>801.7881147975893</v>
       </c>
       <c r="D43" t="n">
-        <v>409.4372433638596</v>
+        <v>651.6714753852534</v>
       </c>
       <c r="E43" t="n">
-        <v>261.5241497814665</v>
+        <v>503.7583818028604</v>
       </c>
       <c r="F43" t="n">
-        <v>261.5241497814665</v>
+        <v>356.8684343049501</v>
       </c>
       <c r="G43" t="n">
-        <v>94.20748936716204</v>
+        <v>189.5517738906456</v>
       </c>
       <c r="H43" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="I43" t="n">
-        <v>94.20748936716204</v>
+        <v>94.20748936716205</v>
       </c>
       <c r="J43" t="n">
         <v>166.0894570336343</v>
@@ -7588,31 +7588,31 @@
         <v>2220.908655214704</v>
       </c>
       <c r="Q43" t="n">
-        <v>2330.212436863831</v>
+        <v>2330.21243686383</v>
       </c>
       <c r="R43" t="n">
-        <v>2330.212436863831</v>
+        <v>2330.21243686383</v>
       </c>
       <c r="S43" t="n">
         <v>2145.256550840131</v>
       </c>
       <c r="T43" t="n">
-        <v>1925.139961038375</v>
+        <v>2145.256550840131</v>
       </c>
       <c r="U43" t="n">
-        <v>1636.058158320981</v>
+        <v>2145.256550840131</v>
       </c>
       <c r="V43" t="n">
-        <v>1381.373670115094</v>
+        <v>1890.572062634244</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.804021163554</v>
+        <v>1601.154892597283</v>
       </c>
       <c r="X43" t="n">
-        <v>980.8144702655363</v>
+        <v>1373.165341699266</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.0218911220063</v>
+        <v>1152.372762555736</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>391.7807846759029</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0140158739076</v>
+        <v>103.0140158739077</v>
       </c>
       <c r="I44" t="n">
         <v>94.20748936716205</v>
       </c>
       <c r="J44" t="n">
-        <v>354.7015150559445</v>
+        <v>522.1071640762975</v>
       </c>
       <c r="K44" t="n">
-        <v>1116.757010144811</v>
+        <v>963.2587007197111</v>
       </c>
       <c r="L44" t="n">
-        <v>1700.946262496195</v>
+        <v>1653.60896367651</v>
       </c>
       <c r="M44" t="n">
-        <v>2382.638804399494</v>
+        <v>2335.30150557981</v>
       </c>
       <c r="N44" t="n">
-        <v>3097.6976095518</v>
+        <v>3032.638353877548</v>
       </c>
       <c r="O44" t="n">
-        <v>3742.837760006958</v>
+        <v>3677.778504332706</v>
       </c>
       <c r="P44" t="n">
-        <v>4258.948951716586</v>
+        <v>4193.889696042334</v>
       </c>
       <c r="Q44" t="n">
-        <v>4598.354216115878</v>
+        <v>4533.294960441625</v>
       </c>
       <c r="R44" t="n">
         <v>4710.374468358103</v>
@@ -7725,28 +7725,28 @@
         <v>94.20748936716205</v>
       </c>
       <c r="J45" t="n">
-        <v>94.20748936716205</v>
+        <v>230.5380995476783</v>
       </c>
       <c r="K45" t="n">
-        <v>405.373041310696</v>
+        <v>541.7036514912122</v>
       </c>
       <c r="L45" t="n">
-        <v>870.096067268106</v>
+        <v>1006.426677448622</v>
       </c>
       <c r="M45" t="n">
-        <v>1431.762787163625</v>
+        <v>1568.093397344141</v>
       </c>
       <c r="N45" t="n">
-        <v>2022.703798759039</v>
+        <v>2159.034408939555</v>
       </c>
       <c r="O45" t="n">
-        <v>2136.794862209453</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="P45" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="Q45" t="n">
-        <v>2533.504060804854</v>
+        <v>2561.392879960832</v>
       </c>
       <c r="R45" t="n">
         <v>2561.392879960832</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>794.1318105119683</v>
+        <v>619.7101107844258</v>
       </c>
       <c r="C46" t="n">
-        <v>706.4438302741057</v>
+        <v>619.7101107844258</v>
       </c>
       <c r="D46" t="n">
-        <v>556.32719086177</v>
+        <v>469.59347137209</v>
       </c>
       <c r="E46" t="n">
-        <v>408.4140972793768</v>
+        <v>469.59347137209</v>
       </c>
       <c r="F46" t="n">
-        <v>261.5241497814665</v>
+        <v>322.7035238741796</v>
       </c>
       <c r="G46" t="n">
-        <v>94.20748936716205</v>
+        <v>322.7035238741796</v>
       </c>
       <c r="H46" t="n">
-        <v>94.20748936716205</v>
+        <v>179.9197946769021</v>
       </c>
       <c r="I46" t="n">
         <v>94.20748936716205</v>
@@ -7807,10 +7807,10 @@
         <v>166.0894570336342</v>
       </c>
       <c r="K46" t="n">
-        <v>414.0504478911745</v>
+        <v>414.0504478911743</v>
       </c>
       <c r="L46" t="n">
-        <v>786.8815808105853</v>
+        <v>786.8815808105851</v>
       </c>
       <c r="M46" t="n">
         <v>1190.368858786432</v>
@@ -7831,25 +7831,25 @@
         <v>2257.745866343997</v>
       </c>
       <c r="S46" t="n">
-        <v>2257.745866343997</v>
+        <v>2072.789980320297</v>
       </c>
       <c r="T46" t="n">
-        <v>2257.745866343997</v>
+        <v>1852.673390518542</v>
       </c>
       <c r="U46" t="n">
-        <v>1968.664063626603</v>
+        <v>1563.591587801147</v>
       </c>
       <c r="V46" t="n">
-        <v>1713.979575420716</v>
+        <v>1308.90709959526</v>
       </c>
       <c r="W46" t="n">
-        <v>1424.562405383756</v>
+        <v>1029.348126512683</v>
       </c>
       <c r="X46" t="n">
-        <v>1196.572854485738</v>
+        <v>801.3585756146658</v>
       </c>
       <c r="Y46" t="n">
-        <v>975.780275342208</v>
+        <v>801.3585756146655</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>256.9443198746409</v>
+        <v>260.8744387036295</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>349.7270020469159</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>273.9129736069763</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>342.0463790909289</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>107.2333440458748</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>107.233344045875</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>342.0463790909289</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>342.0463790909306</v>
       </c>
       <c r="N20" t="n">
-        <v>17.9009665197641</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>107.233344045875</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>342.0463790909288</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>342.0463790909298</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>342.0463790910131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>342.0463790909296</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>20.24767091944733</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>107.233344045874</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>342.0463790909298</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>64.0149685580439</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>342.0463790909289</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10604,10 +10604,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>17.90096651976501</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>20.24767091944733</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.329959217947</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>107.2333440458739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>107.233344045874</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>17.90096651976512</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>70.67049217638896</v>
       </c>
       <c r="H11" t="n">
-        <v>107.6674621150223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00275051226781</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.6868076372076</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7409912039519</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.8611690402588</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1933472626044</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>118.6332717728816</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.575699570821598e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.26018239533775</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6434938101614</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1909846902201</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>115.1675500238379</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.181721801112872e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.79178415559031</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.6434938101614</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>141.3558919053047</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.85518225664259</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>71.74190481463472</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>183.1063271634625</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.9154239037381</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>76.82525200692072</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-8.43769498715119e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>72.76009588929355</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>84.85518225664259</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>71.74190481463472</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>24.46038602359241</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.3075757086471</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>84.85518225664259</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>71.74190481463472</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.31352376172961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>131.4882188373272</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>71.74190481463472</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.9154239037381</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>169.0079042318724</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>60.96574594208548</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>165.6434938101614</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.3558919053047</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>84.85518225664259</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>71.74190481463472</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1063271634625</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1909846902201</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0921625772752</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>62.6367656351444</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.3558919053047</v>
       </c>
       <c r="I34" t="n">
         <v>84.85518225664259</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1909846902201</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.04849394885619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>95.45660008733587</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6434938101614</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.3558919053047</v>
       </c>
       <c r="I37" t="n">
         <v>84.85518225664259</v>
@@ -25360,7 +25360,7 @@
         <v>71.74190481463472</v>
       </c>
       <c r="S37" t="n">
-        <v>118.1144978378538</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.6434938101614</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>141.3558919053047</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>84.85518225664259</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>71.74190481463472</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>3.69642406808201</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1909846902201</v>
+        <v>95.45660008733554</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.3558919053047</v>
+        <v>46.96505022705605</v>
       </c>
       <c r="I43" t="n">
         <v>84.85518225664259</v>
@@ -25837,16 +25837,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.9154239037381</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1909846902201</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.6790458745656</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>80.43572066314388</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6434938101614</v>
       </c>
       <c r="H46" t="n">
-        <v>141.3558919053047</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>84.85518225664259</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1063271634625</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.9154239037381</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>9.759614984839573</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>925979.6818176165</v>
+        <v>925979.6818176158</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977775.432309475</v>
+        <v>977775.4323094754</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977775.4323094751</v>
+        <v>977775.4323094754</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977775.4323094753</v>
+        <v>977775.4323094754</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977775.4323094753</v>
+        <v>977775.4323094751</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977775.4323094751</v>
+        <v>977775.4323094768</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>977775.4323094753</v>
+        <v>977775.4323094751</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>977775.4323094751</v>
+        <v>977775.432309475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977775.432309475</v>
+        <v>977775.4323094751</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>977775.432309475</v>
+        <v>977775.4323094751</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>421611.7776601008</v>
+        <v>421611.7776601005</v>
       </c>
       <c r="F2" t="n">
-        <v>442231.7486195775</v>
+        <v>442231.7486195774</v>
       </c>
       <c r="G2" t="n">
-        <v>442231.7486195775</v>
+        <v>442231.7486195774</v>
       </c>
       <c r="H2" t="n">
-        <v>442231.7486195775</v>
+        <v>442231.7486195776</v>
       </c>
       <c r="I2" t="n">
         <v>442231.7486195774</v>
@@ -26338,22 +26338,22 @@
         <v>442231.7486195776</v>
       </c>
       <c r="K2" t="n">
-        <v>442231.7486195774</v>
+        <v>442231.7486195777</v>
       </c>
       <c r="L2" t="n">
         <v>442231.7486195774</v>
       </c>
       <c r="M2" t="n">
-        <v>442231.7486195776</v>
+        <v>442231.7486195774</v>
       </c>
       <c r="N2" t="n">
-        <v>442231.7486195774</v>
+        <v>442231.7486195777</v>
       </c>
       <c r="O2" t="n">
         <v>442231.7486195775</v>
       </c>
       <c r="P2" t="n">
-        <v>442231.7486195774</v>
+        <v>442231.7486195776</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>838777.477639018</v>
+        <v>838777.4776390165</v>
       </c>
       <c r="F3" t="n">
-        <v>52171.1735678358</v>
+        <v>52171.17356783747</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124991</v>
+        <v>68875.69873125532</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>3323.773824469854</v>
       </c>
       <c r="L3" t="n">
         <v>100763.3119392804</v>
       </c>
       <c r="M3" t="n">
-        <v>96563.4516161856</v>
+        <v>96563.45161618527</v>
       </c>
       <c r="N3" t="n">
-        <v>28367.14570628139</v>
+        <v>28367.14570628184</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354753.5029983671</v>
+        <v>354753.502998367</v>
       </c>
       <c r="C4" t="n">
         <v>350497.5914804416</v>
       </c>
       <c r="D4" t="n">
-        <v>227638.2345336369</v>
+        <v>227638.2345336368</v>
       </c>
       <c r="E4" t="n">
-        <v>6839.909631402155</v>
+        <v>6839.909631402145</v>
       </c>
       <c r="F4" t="n">
-        <v>13702.70754983373</v>
+        <v>13702.70754983377</v>
       </c>
       <c r="G4" t="n">
-        <v>13702.70754983373</v>
+        <v>13702.70754983378</v>
       </c>
       <c r="H4" t="n">
-        <v>13702.70754983373</v>
+        <v>13702.70754983377</v>
       </c>
       <c r="I4" t="n">
-        <v>13702.70754983373</v>
+        <v>13702.70754983377</v>
       </c>
       <c r="J4" t="n">
+        <v>13702.7075498317</v>
+      </c>
+      <c r="K4" t="n">
         <v>13702.70754983375</v>
       </c>
-      <c r="K4" t="n">
-        <v>13702.70754983374</v>
-      </c>
       <c r="L4" t="n">
-        <v>13702.70754983375</v>
+        <v>13702.70754983376</v>
       </c>
       <c r="M4" t="n">
-        <v>13702.70754983373</v>
+        <v>13702.70754983377</v>
       </c>
       <c r="N4" t="n">
         <v>13702.70754983375</v>
       </c>
       <c r="O4" t="n">
-        <v>13702.70754983374</v>
+        <v>13702.70754983375</v>
       </c>
       <c r="P4" t="n">
-        <v>13702.70754983375</v>
+        <v>13702.70754983371</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>92411.25165800186</v>
+        <v>92411.25165800171</v>
       </c>
       <c r="F5" t="n">
-        <v>99976.65812018725</v>
+        <v>99976.65812018728</v>
       </c>
       <c r="G5" t="n">
-        <v>99976.65812018725</v>
+        <v>99976.65812018728</v>
       </c>
       <c r="H5" t="n">
-        <v>99976.65812018725</v>
+        <v>99976.65812018728</v>
       </c>
       <c r="I5" t="n">
-        <v>99976.65812018725</v>
+        <v>99976.65812018728</v>
       </c>
       <c r="J5" t="n">
-        <v>99976.65812018726</v>
+        <v>99976.65812018856</v>
       </c>
       <c r="K5" t="n">
         <v>99976.65812018726</v>
@@ -26500,13 +26500,13 @@
         <v>99976.65812018726</v>
       </c>
       <c r="M5" t="n">
-        <v>99976.65812018725</v>
+        <v>99976.65812018726</v>
       </c>
       <c r="N5" t="n">
         <v>99976.65812018726</v>
       </c>
       <c r="O5" t="n">
-        <v>99976.65812018725</v>
+        <v>99976.65812018726</v>
       </c>
       <c r="P5" t="n">
         <v>99976.65812018726</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63709.39185479414</v>
+        <v>-63709.39185479402</v>
       </c>
       <c r="C6" t="n">
-        <v>34787.31484374485</v>
+        <v>34787.31484374474</v>
       </c>
       <c r="D6" t="n">
         <v>-276107.9613253783</v>
       </c>
       <c r="E6" t="n">
-        <v>-516416.8612683212</v>
+        <v>-516553.0485217983</v>
       </c>
       <c r="F6" t="n">
-        <v>276381.2093817207</v>
+        <v>276338.7492689654</v>
       </c>
       <c r="G6" t="n">
-        <v>328552.3829495565</v>
+        <v>328509.9228368028</v>
       </c>
       <c r="H6" t="n">
-        <v>328552.3829495565</v>
+        <v>328509.922836803</v>
       </c>
       <c r="I6" t="n">
-        <v>328552.3829495565</v>
+        <v>328509.9228368028</v>
       </c>
       <c r="J6" t="n">
-        <v>259676.6842183066</v>
+        <v>259634.2241055484</v>
       </c>
       <c r="K6" t="n">
-        <v>325228.6091250811</v>
+        <v>325186.1490123332</v>
       </c>
       <c r="L6" t="n">
-        <v>227789.0710102761</v>
+        <v>227746.6108975225</v>
       </c>
       <c r="M6" t="n">
-        <v>231988.931333371</v>
+        <v>231946.4712206176</v>
       </c>
       <c r="N6" t="n">
-        <v>300185.237243275</v>
+        <v>300142.7771305213</v>
       </c>
       <c r="O6" t="n">
-        <v>328552.3829495565</v>
+        <v>328509.9228368029</v>
       </c>
       <c r="P6" t="n">
-        <v>328552.3829495563</v>
+        <v>328509.9228368031</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1277.767954512012</v>
+        <v>1277.76795451201</v>
       </c>
       <c r="F3" t="n">
         <v>1301.787440419455</v>
@@ -26796,22 +26796,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1061.774839632237</v>
+        <v>1061.774839632235</v>
       </c>
       <c r="F4" t="n">
-        <v>1177.593617089525</v>
+        <v>1177.593617089526</v>
       </c>
       <c r="G4" t="n">
-        <v>1177.593617089525</v>
+        <v>1177.593617089526</v>
       </c>
       <c r="H4" t="n">
-        <v>1177.593617089525</v>
+        <v>1177.593617089526</v>
       </c>
       <c r="I4" t="n">
-        <v>1177.593617089525</v>
+        <v>1177.593617089526</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.593617089526</v>
+        <v>1177.593617089547</v>
       </c>
       <c r="K4" t="n">
         <v>1177.593617089526</v>
@@ -26820,13 +26820,13 @@
         <v>1177.593617089526</v>
       </c>
       <c r="M4" t="n">
-        <v>1177.593617089525</v>
+        <v>1177.593617089526</v>
       </c>
       <c r="N4" t="n">
         <v>1177.593617089526</v>
       </c>
       <c r="O4" t="n">
-        <v>1177.593617089525</v>
+        <v>1177.593617089526</v>
       </c>
       <c r="P4" t="n">
         <v>1177.593617089526</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979612</v>
       </c>
       <c r="E3" t="n">
-        <v>900.0242902949251</v>
+        <v>900.0242902949238</v>
       </c>
       <c r="F3" t="n">
-        <v>24.01948590744291</v>
+        <v>24.01948590744428</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>398.1307590522001</v>
       </c>
       <c r="E4" t="n">
-        <v>387.4875668776812</v>
+        <v>387.4875668776796</v>
       </c>
       <c r="F4" t="n">
-        <v>115.8187774572887</v>
+        <v>115.8187774572907</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516875</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>12.91447975066774</v>
       </c>
       <c r="L4" t="n">
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>387.4875668776809</v>
+        <v>387.4875668776796</v>
       </c>
       <c r="N4" t="n">
-        <v>115.8187774572889</v>
+        <v>115.8187774572907</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>387.4875668776812</v>
+        <v>387.4875668776796</v>
       </c>
       <c r="N4" t="n">
-        <v>115.8187774572887</v>
+        <v>115.8187774572907</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>376.2859667242301</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>187.4437379520557</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27427,7 +27427,7 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27436,7 +27436,7 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>90.4573915050206</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,13 +27512,13 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>66.94881791786668</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>6.228403429953714</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>65.87458628206232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>231.4103155815797</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>319.8246186852756</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27673,16 +27673,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>126.7854821794704</v>
+        <v>128.7919941118802</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27743,22 +27743,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>80.19643759900795</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
         <v>286.3155846423218</v>
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>255.0197959140367</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>100.2902404630996</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067504</v>
       </c>
       <c r="T10" t="n">
-        <v>18.87430523564663</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-7.874976256055216e-11</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.002665031701327e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.136755596028184</v>
+        <v>5.136755596028179</v>
       </c>
       <c r="H11" t="n">
-        <v>52.60679824782365</v>
+        <v>52.6067982478236</v>
       </c>
       <c r="I11" t="n">
-        <v>198.0347701158768</v>
+        <v>198.0347701158765</v>
       </c>
       <c r="J11" t="n">
-        <v>435.9757102683975</v>
+        <v>435.9757102683971</v>
       </c>
       <c r="K11" t="n">
-        <v>653.4145746482707</v>
+        <v>653.41457464827</v>
       </c>
       <c r="L11" t="n">
-        <v>810.6185587202184</v>
+        <v>810.6185587202175</v>
       </c>
       <c r="M11" t="n">
-        <v>901.9693360510845</v>
+        <v>901.9693360510836</v>
       </c>
       <c r="N11" t="n">
-        <v>916.5641428882997</v>
+        <v>916.5641428882988</v>
       </c>
       <c r="O11" t="n">
-        <v>865.4855294302944</v>
+        <v>865.4855294302935</v>
       </c>
       <c r="P11" t="n">
-        <v>738.6718756533485</v>
+        <v>738.6718756533477</v>
       </c>
       <c r="Q11" t="n">
-        <v>554.7118158705889</v>
+        <v>554.7118158705883</v>
       </c>
       <c r="R11" t="n">
-        <v>322.6717237090057</v>
+        <v>322.6717237090054</v>
       </c>
       <c r="S11" t="n">
-        <v>117.0538181444924</v>
+        <v>117.0538181444922</v>
       </c>
       <c r="T11" t="n">
-        <v>22.48614762161339</v>
+        <v>22.48614762161336</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4109404476822546</v>
+        <v>0.4109404476822542</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.748406543667346</v>
+        <v>2.748406543667343</v>
       </c>
       <c r="H12" t="n">
-        <v>26.54382109278727</v>
+        <v>26.54382109278724</v>
       </c>
       <c r="I12" t="n">
-        <v>94.62715512188014</v>
+        <v>94.62715512188004</v>
       </c>
       <c r="J12" t="n">
-        <v>259.6641463032382</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>443.8073847289504</v>
+        <v>443.8073847289499</v>
       </c>
       <c r="L12" t="n">
-        <v>596.7537980011052</v>
+        <v>596.7537980011045</v>
       </c>
       <c r="M12" t="n">
-        <v>696.3835352090464</v>
+        <v>696.3835352090456</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>714.8147352321482</v>
       </c>
       <c r="O12" t="n">
-        <v>653.9158323435198</v>
+        <v>653.9158323435191</v>
       </c>
       <c r="P12" t="n">
-        <v>524.8251056938111</v>
+        <v>216.445191953793</v>
       </c>
       <c r="Q12" t="n">
-        <v>257.2855738215278</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>170.6422940006797</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>51.0504461071544</v>
+        <v>51.05044610715434</v>
       </c>
       <c r="T12" t="n">
-        <v>11.07800707732583</v>
+        <v>11.07800707732582</v>
       </c>
       <c r="U12" t="n">
-        <v>0.180816219978115</v>
+        <v>0.1808162199781148</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.304171721251168</v>
+        <v>2.304171721251166</v>
       </c>
       <c r="H13" t="n">
-        <v>20.48618130348768</v>
+        <v>20.48618130348765</v>
       </c>
       <c r="I13" t="n">
-        <v>69.29272776271698</v>
+        <v>69.29272776271691</v>
       </c>
       <c r="J13" t="n">
-        <v>162.9049406924576</v>
+        <v>162.9049406924574</v>
       </c>
       <c r="K13" t="n">
-        <v>267.7028599780903</v>
+        <v>267.70285997809</v>
       </c>
       <c r="L13" t="n">
-        <v>342.5674939031056</v>
+        <v>342.5674939031052</v>
       </c>
       <c r="M13" t="n">
-        <v>361.1893908139445</v>
+        <v>361.1893908139441</v>
       </c>
       <c r="N13" t="n">
-        <v>352.6011143983723</v>
+        <v>352.6011143983719</v>
       </c>
       <c r="O13" t="n">
-        <v>325.6841992910289</v>
+        <v>325.6841992910286</v>
       </c>
       <c r="P13" t="n">
-        <v>278.6790961775048</v>
+        <v>278.6790961775046</v>
       </c>
       <c r="Q13" t="n">
-        <v>192.9429611313138</v>
+        <v>192.9429611313136</v>
       </c>
       <c r="R13" t="n">
-        <v>103.6039393937116</v>
+        <v>103.6039393937115</v>
       </c>
       <c r="S13" t="n">
-        <v>40.15542899671353</v>
+        <v>40.15542899671349</v>
       </c>
       <c r="T13" t="n">
-        <v>9.845097354436808</v>
+        <v>9.845097354436797</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1256820938864275</v>
+        <v>0.1256820938864274</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>96.40595667257284</v>
       </c>
       <c r="J15" t="n">
-        <v>264.5453137176932</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>452.150077301161</v>
+        <v>323.9245529578419</v>
       </c>
       <c r="L15" t="n">
-        <v>441.360756708192</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>709.4741550286027</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>728.251824805974</v>
       </c>
       <c r="O15" t="n">
         <v>666.2081441550392</v>
@@ -32099,7 +32099,7 @@
         <v>357.4266194902624</v>
       </c>
       <c r="R15" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>52.01009254883384</v>
@@ -32318,16 +32318,16 @@
         <v>452.150077301161</v>
       </c>
       <c r="L18" t="n">
-        <v>585.5073891003872</v>
+        <v>607.971577716652</v>
       </c>
       <c r="M18" t="n">
-        <v>709.4741550286027</v>
+        <v>191.5685911017204</v>
       </c>
       <c r="N18" t="n">
         <v>728.251824805974</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>666.2081441550392</v>
       </c>
       <c r="P18" t="n">
         <v>534.6907696319078</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>52.01009254883384</v>
@@ -32552,10 +32552,10 @@
         <v>264.5453137176932</v>
       </c>
       <c r="K21" t="n">
-        <v>452.150077301161</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>607.971577716652</v>
+        <v>404.3746521165717</v>
       </c>
       <c r="M21" t="n">
         <v>709.4741550286027</v>
@@ -32564,16 +32564,16 @@
         <v>728.251824805974</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>666.2081441550392</v>
       </c>
       <c r="P21" t="n">
-        <v>294.7817356114019</v>
+        <v>534.6907696319078</v>
       </c>
       <c r="Q21" t="n">
-        <v>357.4266194902624</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>52.01009254883384</v>
@@ -32786,13 +32786,13 @@
         <v>96.40595667257284</v>
       </c>
       <c r="J24" t="n">
-        <v>264.5453137176932</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>452.150077301161</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>245.1670062031287</v>
+        <v>607.971577716652</v>
       </c>
       <c r="M24" t="n">
         <v>709.4741550286027</v>
@@ -32804,13 +32804,13 @@
         <v>666.2081441550392</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>468.8015310828538</v>
       </c>
       <c r="Q24" t="n">
-        <v>357.4266194902624</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>52.01009254883384</v>
@@ -33023,7 +33023,7 @@
         <v>96.40595667257284</v>
       </c>
       <c r="J27" t="n">
-        <v>264.5453137176932</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33038,16 +33038,16 @@
         <v>728.251824805974</v>
       </c>
       <c r="O27" t="n">
-        <v>216.9958487507407</v>
+        <v>666.2081441550392</v>
       </c>
       <c r="P27" t="n">
-        <v>534.6907696319078</v>
+        <v>468.8015310828542</v>
       </c>
       <c r="Q27" t="n">
-        <v>357.4266194902624</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>52.01009254883384</v>
@@ -33260,16 +33260,16 @@
         <v>96.40595667257284</v>
       </c>
       <c r="J30" t="n">
-        <v>264.5453137176932</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>255.9692646766445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>607.971577716652</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>709.4741550286027</v>
       </c>
       <c r="N30" t="n">
         <v>728.251824805974</v>
@@ -33278,13 +33278,13 @@
         <v>666.2081441550392</v>
       </c>
       <c r="P30" t="n">
-        <v>534.6907696319078</v>
+        <v>251.3566856786128</v>
       </c>
       <c r="Q30" t="n">
         <v>357.4266194902624</v>
       </c>
       <c r="R30" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>52.01009254883384</v>
@@ -33500,16 +33500,16 @@
         <v>264.5453137176932</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>452.150077301161</v>
       </c>
       <c r="L33" t="n">
         <v>607.971577716652</v>
       </c>
       <c r="M33" t="n">
-        <v>660.9782218418813</v>
+        <v>709.4741550286027</v>
       </c>
       <c r="N33" t="n">
-        <v>728.251824805974</v>
+        <v>611.0626230966692</v>
       </c>
       <c r="O33" t="n">
         <v>666.2081441550392</v>
@@ -33518,10 +33518,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>357.4266194902624</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>52.01009254883384</v>
@@ -33749,7 +33749,7 @@
         <v>728.251824805974</v>
       </c>
       <c r="O36" t="n">
-        <v>520.8484180457571</v>
+        <v>549.0189424457345</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>52.01009254883384</v>
@@ -33983,19 +33983,19 @@
         <v>709.4741550286027</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>728.251824805974</v>
       </c>
       <c r="O39" t="n">
-        <v>666.2081441550392</v>
+        <v>549.0189424457345</v>
       </c>
       <c r="P39" t="n">
-        <v>368.0799486234477</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>357.4266194902624</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>52.01009254883384</v>
@@ -34214,25 +34214,25 @@
         <v>452.150077301161</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>607.971577716652</v>
       </c>
       <c r="M42" t="n">
         <v>709.4741550286027</v>
       </c>
       <c r="N42" t="n">
-        <v>434.148089011651</v>
+        <v>611.0626230966692</v>
       </c>
       <c r="O42" t="n">
         <v>666.2081441550392</v>
       </c>
       <c r="P42" t="n">
-        <v>534.6907696319078</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>357.4266194902624</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>52.01009254883384</v>
@@ -34445,7 +34445,7 @@
         <v>96.40595667257284</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>264.5453137176932</v>
       </c>
       <c r="K45" t="n">
         <v>452.150077301161</v>
@@ -34460,16 +34460,16 @@
         <v>728.251824805974</v>
       </c>
       <c r="O45" t="n">
-        <v>257.839742879206</v>
+        <v>549.0189424457345</v>
       </c>
       <c r="P45" t="n">
-        <v>534.6907696319078</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>173.8500283639416</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>52.01009254883384</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>134.6170405889698</v>
@@ -34784,7 +34784,7 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>127.3525795169227</v>
+        <v>131.2826983459113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>138.7877391315785</v>
@@ -35021,16 +35021,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>237.9770422219167</v>
       </c>
       <c r="O6" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3230534491487</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>254.9298057417112</v>
+        <v>254.9298057417108</v>
       </c>
       <c r="K11" t="n">
-        <v>433.3247236032901</v>
+        <v>433.3247236032894</v>
       </c>
       <c r="L11" t="n">
-        <v>574.8521437502311</v>
+        <v>574.8521437502302</v>
       </c>
       <c r="M11" t="n">
-        <v>671.6231028238118</v>
+        <v>671.6231028238109</v>
       </c>
       <c r="N11" t="n">
-        <v>687.1510792917088</v>
+        <v>687.1510792917079</v>
       </c>
       <c r="O11" t="n">
-        <v>635.3873180086076</v>
+        <v>635.3873180086067</v>
       </c>
       <c r="P11" t="n">
-        <v>507.4388798980789</v>
+        <v>507.4388798980781</v>
       </c>
       <c r="Q11" t="n">
-        <v>332.4061259961394</v>
+        <v>332.4061259961388</v>
       </c>
       <c r="R11" t="n">
-        <v>107.0861858948736</v>
+        <v>107.0861858948733</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.8265196365715</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>305.9659457545914</v>
+        <v>305.9659457545909</v>
       </c>
       <c r="L12" t="n">
-        <v>458.199418221231</v>
+        <v>458.1994182212304</v>
       </c>
       <c r="M12" t="n">
-        <v>554.2495012870281</v>
+        <v>554.2495012870272</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>583.4730231488149</v>
       </c>
       <c r="O12" t="n">
-        <v>511.3195878990754</v>
+        <v>511.3195878990747</v>
       </c>
       <c r="P12" t="n">
-        <v>390.8506982794809</v>
+        <v>82.47078453946277</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.3037997355063</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>24.96279003671572</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>69.54576057578484</v>
+        <v>69.54576057578467</v>
       </c>
       <c r="K13" t="n">
-        <v>245.4333681522074</v>
+        <v>245.4333681522071</v>
       </c>
       <c r="L13" t="n">
-        <v>370.1575191634217</v>
+        <v>370.1575191634214</v>
       </c>
       <c r="M13" t="n">
-        <v>400.7732677757851</v>
+        <v>400.7732677757847</v>
       </c>
       <c r="N13" t="n">
-        <v>396.7332867776008</v>
+        <v>396.7332867776005</v>
       </c>
       <c r="O13" t="n">
-        <v>350.2693272050686</v>
+        <v>350.2693272050682</v>
       </c>
       <c r="P13" t="n">
-        <v>275.9576554423983</v>
+        <v>275.957655442398</v>
       </c>
       <c r="Q13" t="n">
-        <v>106.7809178796194</v>
+        <v>106.7809178796192</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.1252784735176</v>
+        <v>432.2218936455914</v>
       </c>
       <c r="K14" t="n">
         <v>445.6076127711248</v>
       </c>
       <c r="L14" t="n">
-        <v>932.1365329812154</v>
+        <v>590.0901538902865</v>
       </c>
       <c r="M14" t="n">
         <v>688.5783251548481</v>
@@ -35659,7 +35659,7 @@
         <v>704.3806548462005</v>
       </c>
       <c r="O14" t="n">
-        <v>651.6567176314727</v>
+        <v>758.8900616773475</v>
       </c>
       <c r="P14" t="n">
         <v>521.3244360703309</v>
@@ -35668,7 +35668,7 @@
         <v>342.8336004033249</v>
       </c>
       <c r="R14" t="n">
-        <v>113.1517699416411</v>
+        <v>178.8681898146235</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.7076870510265</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>314.308638326802</v>
+        <v>186.0831139834829</v>
       </c>
       <c r="L15" t="n">
-        <v>302.8063769283178</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>567.3401211065843</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>596.9101127226407</v>
       </c>
       <c r="O15" t="n">
         <v>523.6118997105948</v>
@@ -35747,7 +35747,7 @@
         <v>217.4448454042409</v>
       </c>
       <c r="R15" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.1252784735176</v>
+        <v>432.2218936455914</v>
       </c>
       <c r="K17" t="n">
-        <v>445.6076127711248</v>
+        <v>552.8409568169998</v>
       </c>
       <c r="L17" t="n">
         <v>590.0901538902865</v>
@@ -35893,7 +35893,7 @@
         <v>688.5783251548481</v>
       </c>
       <c r="N17" t="n">
-        <v>1046.427033937129</v>
+        <v>704.3806548462005</v>
       </c>
       <c r="O17" t="n">
         <v>651.6567176314727</v>
@@ -35905,7 +35905,7 @@
         <v>342.8336004033249</v>
       </c>
       <c r="R17" t="n">
-        <v>113.1517699416411</v>
+        <v>178.8681898146235</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>314.308638326802</v>
       </c>
       <c r="L18" t="n">
-        <v>446.953009320513</v>
+        <v>469.4171979367778</v>
       </c>
       <c r="M18" t="n">
-        <v>567.3401211065843</v>
+        <v>49.43455717970212</v>
       </c>
       <c r="N18" t="n">
         <v>596.9101127226407</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>523.6118997105948</v>
       </c>
       <c r="P18" t="n">
         <v>400.7163622175775</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>263.1252784735176</v>
       </c>
       <c r="K20" t="n">
-        <v>769.7530253422896</v>
+        <v>445.6076127711248</v>
       </c>
       <c r="L20" t="n">
         <v>590.0901538902865</v>
       </c>
       <c r="M20" t="n">
-        <v>688.5783251548481</v>
+        <v>1030.624704245779</v>
       </c>
       <c r="N20" t="n">
-        <v>722.2816213659646</v>
+        <v>704.3806548462005</v>
       </c>
       <c r="O20" t="n">
         <v>651.6567176314727</v>
@@ -36200,10 +36200,10 @@
         <v>137.7076870510265</v>
       </c>
       <c r="K21" t="n">
-        <v>314.308638326802</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>469.4171979367778</v>
+        <v>265.8202723366975</v>
       </c>
       <c r="M21" t="n">
         <v>567.3401211065843</v>
@@ -36212,16 +36212,16 @@
         <v>596.9101127226407</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>523.6118997105948</v>
       </c>
       <c r="P21" t="n">
-        <v>160.8073281970717</v>
+        <v>400.7163622175775</v>
       </c>
       <c r="Q21" t="n">
-        <v>217.4448454042409</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>250.4656473308487</v>
       </c>
       <c r="L22" t="n">
-        <v>376.5971039590009</v>
+        <v>376.5971039590008</v>
       </c>
       <c r="M22" t="n">
         <v>407.5629070463103</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.1252784735176</v>
+        <v>432.2218936455914</v>
       </c>
       <c r="K23" t="n">
-        <v>445.6076127711248</v>
+        <v>552.8409568169998</v>
       </c>
       <c r="L23" t="n">
         <v>590.0901538902865</v>
       </c>
       <c r="M23" t="n">
-        <v>1030.624704245777</v>
+        <v>688.5783251548481</v>
       </c>
       <c r="N23" t="n">
         <v>704.3806548462005</v>
@@ -36379,7 +36379,7 @@
         <v>342.8336004033249</v>
       </c>
       <c r="R23" t="n">
-        <v>113.1517699416411</v>
+        <v>178.8681898146235</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.7076870510265</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>314.308638326802</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>106.6126264232546</v>
+        <v>469.4171979367778</v>
       </c>
       <c r="M24" t="n">
         <v>567.3401211065843</v>
@@ -36452,13 +36452,13 @@
         <v>523.6118997105948</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.8271236685235</v>
       </c>
       <c r="Q24" t="n">
-        <v>217.4448454042409</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,10 +36604,10 @@
         <v>688.5783251548481</v>
       </c>
       <c r="N26" t="n">
-        <v>1046.42703393713</v>
+        <v>704.3806548462005</v>
       </c>
       <c r="O26" t="n">
-        <v>651.6567176314727</v>
+        <v>993.7030967224858</v>
       </c>
       <c r="P26" t="n">
         <v>521.3244360703309</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.7076870510265</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,16 +36686,16 @@
         <v>596.9101127226407</v>
       </c>
       <c r="O27" t="n">
-        <v>74.39960430629623</v>
+        <v>523.6118997105948</v>
       </c>
       <c r="P27" t="n">
-        <v>400.7163622175775</v>
+        <v>334.827123668524</v>
       </c>
       <c r="Q27" t="n">
-        <v>217.4448454042409</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,13 +36844,13 @@
         <v>704.3806548462005</v>
       </c>
       <c r="O29" t="n">
-        <v>993.7030967224023</v>
+        <v>651.6567176314727</v>
       </c>
       <c r="P29" t="n">
-        <v>521.3244360703309</v>
+        <v>843.1231442418136</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.8336004033249</v>
+        <v>363.0812713227722</v>
       </c>
       <c r="R29" t="n">
         <v>113.1517699416411</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.7076870510265</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>118.1278257022855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>469.4171979367778</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>567.3401211065843</v>
       </c>
       <c r="N30" t="n">
         <v>596.9101127226407</v>
@@ -36926,13 +36926,13 @@
         <v>523.6118997105948</v>
       </c>
       <c r="P30" t="n">
-        <v>400.7163622175775</v>
+        <v>117.3822782642825</v>
       </c>
       <c r="Q30" t="n">
         <v>217.4448454042409</v>
       </c>
       <c r="R30" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.1252784735176</v>
+        <v>432.2218936455914</v>
       </c>
       <c r="K32" t="n">
-        <v>445.6076127711248</v>
+        <v>552.8409568169989</v>
       </c>
       <c r="L32" t="n">
         <v>590.0901538902865</v>
@@ -37078,7 +37078,7 @@
         <v>688.5783251548481</v>
       </c>
       <c r="N32" t="n">
-        <v>1046.42703393713</v>
+        <v>704.3806548462005</v>
       </c>
       <c r="O32" t="n">
         <v>651.6567176314727</v>
@@ -37090,7 +37090,7 @@
         <v>342.8336004033249</v>
       </c>
       <c r="R32" t="n">
-        <v>113.1517699416411</v>
+        <v>178.8681898146235</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>137.7076870510265</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>314.308638326802</v>
       </c>
       <c r="L33" t="n">
         <v>469.4171979367778</v>
       </c>
       <c r="M33" t="n">
-        <v>518.8441879198631</v>
+        <v>567.3401211065843</v>
       </c>
       <c r="N33" t="n">
-        <v>596.9101127226407</v>
+        <v>479.7209110133359</v>
       </c>
       <c r="O33" t="n">
         <v>523.6118997105948</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>217.4448454042409</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.1252784735176</v>
+        <v>327.1402470315615</v>
       </c>
       <c r="K35" t="n">
         <v>445.6076127711248</v>
@@ -37315,7 +37315,7 @@
         <v>688.5783251548481</v>
       </c>
       <c r="N35" t="n">
-        <v>1046.427033937129</v>
+        <v>704.3806548462005</v>
       </c>
       <c r="O35" t="n">
         <v>651.6567176314727</v>
@@ -37324,10 +37324,10 @@
         <v>521.3244360703309</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.8336004033249</v>
+        <v>555.1485910632296</v>
       </c>
       <c r="R35" t="n">
-        <v>113.1517699416411</v>
+        <v>178.8681898146235</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>596.9101127226407</v>
       </c>
       <c r="O36" t="n">
-        <v>378.2521736013126</v>
+        <v>406.4226980012901</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>263.1252784735176</v>
       </c>
       <c r="K38" t="n">
-        <v>769.7530253422896</v>
+        <v>445.6076127711248</v>
       </c>
       <c r="L38" t="n">
         <v>590.0901538902865</v>
       </c>
       <c r="M38" t="n">
-        <v>706.4792916746131</v>
+        <v>688.5783251548481</v>
       </c>
       <c r="N38" t="n">
         <v>704.3806548462005</v>
@@ -37558,10 +37558,10 @@
         <v>651.6567176314727</v>
       </c>
       <c r="P38" t="n">
-        <v>521.3244360703309</v>
+        <v>843.1231442418136</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.8336004033249</v>
+        <v>363.0812713227722</v>
       </c>
       <c r="R38" t="n">
         <v>113.1517699416411</v>
@@ -37631,19 +37631,19 @@
         <v>567.3401211065843</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>596.9101127226407</v>
       </c>
       <c r="O39" t="n">
-        <v>523.6118997105948</v>
+        <v>406.4226980012901</v>
       </c>
       <c r="P39" t="n">
-        <v>234.1055412091175</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>217.4448454042409</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.1252784735176</v>
+        <v>432.2218936455914</v>
       </c>
       <c r="K41" t="n">
-        <v>721.9375719890718</v>
+        <v>445.6076127711248</v>
       </c>
       <c r="L41" t="n">
         <v>590.0901538902865</v>
@@ -37798,7 +37798,7 @@
         <v>521.3244360703309</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8336004033249</v>
+        <v>450.0669444491988</v>
       </c>
       <c r="R41" t="n">
         <v>178.8681898146235</v>
@@ -37862,25 +37862,25 @@
         <v>314.308638326802</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>469.4171979367778</v>
       </c>
       <c r="M42" t="n">
         <v>567.3401211065843</v>
       </c>
       <c r="N42" t="n">
-        <v>302.8063769283177</v>
+        <v>479.7209110133359</v>
       </c>
       <c r="O42" t="n">
         <v>523.6118997105948</v>
       </c>
       <c r="P42" t="n">
-        <v>400.7163622175775</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>217.4448454042409</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>263.1252784735176</v>
+        <v>432.2218936455914</v>
       </c>
       <c r="K44" t="n">
-        <v>769.7530253422896</v>
+        <v>445.6076127711248</v>
       </c>
       <c r="L44" t="n">
-        <v>590.0901538902865</v>
+        <v>697.3234979361605</v>
       </c>
       <c r="M44" t="n">
         <v>688.5783251548481</v>
       </c>
       <c r="N44" t="n">
-        <v>722.2816213659656</v>
+        <v>704.3806548462005</v>
       </c>
       <c r="O44" t="n">
         <v>651.6567176314727</v>
@@ -38038,7 +38038,7 @@
         <v>342.8336004033249</v>
       </c>
       <c r="R44" t="n">
-        <v>113.1517699416411</v>
+        <v>178.8681898146235</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>137.7076870510265</v>
       </c>
       <c r="K45" t="n">
         <v>314.308638326802</v>
@@ -38108,16 +38108,16 @@
         <v>596.9101127226407</v>
       </c>
       <c r="O45" t="n">
-        <v>115.2434984347615</v>
+        <v>406.4226980012901</v>
       </c>
       <c r="P45" t="n">
-        <v>400.7163622175775</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>28.17052439997764</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.60804814795176</v>
+        <v>72.60804814795171</v>
       </c>
       <c r="K46" t="n">
         <v>250.4656473308487</v>
@@ -38181,7 +38181,7 @@
         <v>376.5971039590008</v>
       </c>
       <c r="M46" t="n">
-        <v>407.5629070463103</v>
+        <v>407.5629070463102</v>
       </c>
       <c r="N46" t="n">
         <v>403.3614836018629</v>
